--- a/SSBBUe_Schedule.xlsx
+++ b/SSBBUe_Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\01_Project\03_SS_BBUe\01_Init\04_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E3B0A-2B36-4A70-A25F-C982D91C82CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2893F4D-2BBD-47DD-9748-89D88CD1EE5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="793" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2448,54 +2448,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,6 +2469,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2525,6 +2492,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8534,14 +8534,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -8558,7 +8558,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="1162050"/>
+          <a:off x="5076825" y="1162050"/>
           <a:ext cx="0" cy="14658975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12876,15 +12876,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
@@ -12894,11 +12894,11 @@
       <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="40" t="s">
         <v>40</v>
       </c>
@@ -12913,13 +12913,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="66" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -12934,9 +12934,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
@@ -12949,8 +12949,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="42" t="s">
         <v>41</v>
       </c>
@@ -12966,17 +12966,17 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="71" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="68" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="44"/>
@@ -12985,93 +12985,93 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="44"/>
       <c r="H10" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="44"/>
       <c r="H11" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="44"/>
       <c r="H12" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="44"/>
       <c r="H13" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="44"/>
       <c r="H14" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="68" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="44"/>
@@ -13080,80 +13080,80 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="44"/>
       <c r="H16" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="44"/>
       <c r="H17" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="74"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="72" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="68" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="44"/>
@@ -13162,28 +13162,28 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="74"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="72" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="44"/>
@@ -13192,34 +13192,34 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="73"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="44"/>
       <c r="H24" s="42" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="44"/>
       <c r="H25" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="42" t="s">
         <v>76</v>
       </c>
@@ -13235,8 +13235,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="42" t="s">
         <v>79</v>
       </c>
@@ -13252,8 +13252,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="42" t="s">
         <v>82</v>
       </c>
@@ -13269,8 +13269,8 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="42" t="s">
         <v>93</v>
       </c>
@@ -13286,8 +13286,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="42" t="s">
         <v>96</v>
       </c>
@@ -13303,8 +13303,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="42" t="s">
         <v>99</v>
       </c>
@@ -13320,8 +13320,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="81" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -13339,15 +13339,15 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="61" t="s">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="75" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="68" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="45"/>
@@ -13356,13 +13356,13 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45" t="s">
         <v>92</v>
@@ -13370,15 +13370,15 @@
       <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="69" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="77" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="68" t="s">
         <v>103</v>
       </c>
       <c r="G35" s="45"/>
@@ -13388,13 +13388,13 @@
       <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="45"/>
       <c r="H36" s="45" t="s">
         <v>52</v>
@@ -13402,13 +13402,13 @@
       <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="70"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="66"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="45"/>
       <c r="H37" s="45" t="s">
         <v>53</v>
@@ -13416,67 +13416,67 @@
       <c r="I37" s="46"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="70"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="45"/>
       <c r="H38" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="66"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="45"/>
       <c r="H39" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="45"/>
       <c r="H40" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="71"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="60"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="45"/>
       <c r="H41" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="61" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="75" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="68" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="45"/>
@@ -13485,41 +13485,41 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="65"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="66"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="45"/>
       <c r="H43" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="62"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="45"/>
       <c r="H44" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="61" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="75" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="68" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="45"/>
@@ -13528,132 +13528,132 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="66"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="45"/>
       <c r="H46" s="42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="65"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="66"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="45"/>
       <c r="H47" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="65"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="66"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="45"/>
       <c r="H48" s="42" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="66"/>
+      <c r="F49" s="70"/>
       <c r="G49" s="45"/>
       <c r="H49" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="66"/>
+      <c r="F50" s="70"/>
       <c r="G50" s="45"/>
       <c r="H50" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="66"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="45"/>
       <c r="H51" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="65"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="66"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="45"/>
       <c r="H52" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="65"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="66"/>
+      <c r="F53" s="70"/>
       <c r="G53" s="45"/>
       <c r="H53" s="45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="80"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="62"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="76"/>
       <c r="E54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="60"/>
+      <c r="F54" s="69"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="67" t="s">
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="81" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="68" t="s">
         <v>114</v>
       </c>
       <c r="G55" s="45"/>
@@ -13662,28 +13662,28 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="68"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="60"/>
+      <c r="F56" s="69"/>
       <c r="G56" s="45"/>
       <c r="H56" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="61" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="75" t="s">
         <v>115</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="68" t="s">
         <v>116</v>
       </c>
       <c r="G57" s="45"/>
@@ -13692,67 +13692,67 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="66"/>
+      <c r="F58" s="70"/>
       <c r="G58" s="45"/>
       <c r="H58" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="65"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="66"/>
+      <c r="F59" s="70"/>
       <c r="G59" s="45"/>
       <c r="H59" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="65"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="80"/>
       <c r="E60" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="66"/>
+      <c r="F60" s="70"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="62"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="76"/>
       <c r="E61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="60"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="45"/>
       <c r="H61" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="61" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="75" t="s">
         <v>119</v>
       </c>
       <c r="E62" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="68" t="s">
         <v>120</v>
       </c>
       <c r="G62" s="45"/>
@@ -13761,28 +13761,28 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="62"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="76"/>
       <c r="E63" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="60"/>
+      <c r="F63" s="69"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="80"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="61" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="75" t="s">
         <v>123</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="68" t="s">
         <v>124</v>
       </c>
       <c r="G64" s="45"/>
@@ -13791,26 +13791,26 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="62"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="60"/>
+      <c r="F65" s="69"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="61" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="75" t="s">
         <v>125</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="68" t="s">
         <v>126</v>
       </c>
       <c r="G66" s="45"/>
@@ -13819,47 +13819,47 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="65"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="66"/>
+      <c r="F67" s="70"/>
       <c r="G67" s="45"/>
       <c r="H67" s="42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="65"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="80"/>
       <c r="E68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="66"/>
+      <c r="F68" s="70"/>
       <c r="G68" s="45"/>
       <c r="H68" s="42" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="62"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="76"/>
       <c r="E69" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="60"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="45"/>
       <c r="H69" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81" t="s">
+      <c r="B70" s="64"/>
+      <c r="C70" s="65" t="s">
         <v>152</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -13877,8 +13877,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="45" t="s">
         <v>143</v>
       </c>
@@ -13894,8 +13894,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="80"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="45" t="s">
         <v>146</v>
       </c>
@@ -13911,15 +13911,15 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="80"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="61" t="s">
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="75" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="68" t="s">
         <v>154</v>
       </c>
       <c r="G73" s="45"/>
@@ -13928,28 +13928,28 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="80"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="62"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="60"/>
+      <c r="F74" s="69"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="61" t="s">
+      <c r="B75" s="64"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="75" t="s">
         <v>157</v>
       </c>
       <c r="E75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="68" t="s">
         <v>158</v>
       </c>
       <c r="G75" s="45"/>
@@ -13958,34 +13958,34 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="80"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="65"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="80"/>
       <c r="E76" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="66"/>
+      <c r="F76" s="70"/>
       <c r="G76" s="45"/>
       <c r="H76" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="80"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="76"/>
       <c r="E77" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="69"/>
       <c r="G77" s="45"/>
       <c r="H77" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="51" t="s">
         <v>162</v>
       </c>
@@ -14001,8 +14001,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="80"/>
-      <c r="C79" s="81"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="51" t="s">
         <v>164</v>
       </c>
@@ -14018,15 +14018,15 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="80"/>
-      <c r="C80" s="81"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="51" t="s">
         <v>169</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="68" t="s">
         <v>174</v>
       </c>
       <c r="G80" s="45"/>
@@ -14035,34 +14035,34 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="80"/>
-      <c r="C81" s="81"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="51"/>
       <c r="E81" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="66"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="51"/>
       <c r="E82" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="60"/>
+      <c r="F82" s="69"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="80"/>
-      <c r="C83" s="81"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="51" t="s">
         <v>173</v>
       </c>
@@ -14078,17 +14078,17 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="80"/>
-      <c r="C84" s="63" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="75" t="s">
         <v>134</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="68" t="s">
         <v>135</v>
       </c>
       <c r="G84" s="45"/>
@@ -14097,28 +14097,28 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="80"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="62"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="76"/>
       <c r="E85" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="60"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="80"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="61" t="s">
+      <c r="B86" s="64"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="75" t="s">
         <v>138</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="68" t="s">
         <v>139</v>
       </c>
       <c r="G86" s="45"/>
@@ -14127,21 +14127,21 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="80"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="62"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="76"/>
       <c r="E87" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="45"/>
       <c r="H87" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="80"/>
-      <c r="C88" s="64"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="45" t="s">
         <v>141</v>
       </c>
@@ -14155,8 +14155,8 @@
       <c r="H88" s="45"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="80"/>
-      <c r="C89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="45" t="s">
         <v>166</v>
       </c>
@@ -14172,8 +14172,8 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="80"/>
-      <c r="C90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="84"/>
       <c r="D90" s="45" t="s">
         <v>176</v>
       </c>
@@ -14189,7 +14189,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="80"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="50" t="s">
         <v>178</v>
       </c>
@@ -14208,7 +14208,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="80" t="s">
+      <c r="B92" s="64" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="44" t="s">
@@ -14223,7 +14223,7 @@
       <c r="H92" s="45"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="80"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="44" t="s">
         <v>25</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="H93" s="45"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="80"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="44" t="s">
         <v>0</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="H94" s="45"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="80"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="44" t="s">
         <v>1</v>
       </c>
@@ -14262,7 +14262,7 @@
       <c r="H95" s="45"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="80"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="44" t="s">
         <v>2</v>
       </c>
@@ -14275,7 +14275,7 @@
       <c r="H96" s="45"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="41" t="s">
@@ -14290,7 +14290,7 @@
       <c r="H97" s="45"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="80"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="41" t="s">
         <v>28</v>
       </c>
@@ -14303,7 +14303,7 @@
       <c r="H98" s="45"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="80"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="44" t="s">
         <v>29</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="H99" s="45"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="80" t="s">
+      <c r="B100" s="64" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="41" t="s">
@@ -14333,7 +14333,7 @@
       <c r="H100" s="45"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="80"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="41" t="s">
         <v>33</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="80"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="44" t="s">
         <v>35</v>
       </c>
@@ -14374,7 +14374,7 @@
       <c r="H103" s="45"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="75" t="s">
+      <c r="B104" s="59" t="s">
         <v>180</v>
       </c>
       <c r="C104" s="45" t="s">
@@ -14387,7 +14387,7 @@
       <c r="H104" s="45"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="76"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="45" t="s">
         <v>182</v>
       </c>
@@ -14398,7 +14398,7 @@
       <c r="H105" s="45"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="77"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="45" t="s">
         <v>237</v>
       </c>
@@ -14410,6 +14410,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="B104:B106"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:D4"/>
@@ -14426,38 +14458,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F80:F82"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SSBBUe_Schedule.xlsx
+++ b/SSBBUe_Schedule.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2893F4D-2BBD-47DD-9748-89D88CD1EE5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691C8FB-0678-47E1-8E2B-4A016C195688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="793" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="793" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="breakdown cmd" sheetId="14" r:id="rId1"/>
     <sheet name="TimeLine-P1" sheetId="13" r:id="rId2"/>
     <sheet name="TimeLine-without RET" sheetId="15" r:id="rId3"/>
+    <sheet name="TimeLine" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="251">
   <si>
     <t>RSSI</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2276,7 +2277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2448,6 +2449,54 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2469,21 +2518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2493,38 +2527,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12537,6 +12541,6569 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>53744</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>167681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D24378-A334-4032-91D8-0D89B817EA46}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10274069" y="190500"/>
+          <a:ext cx="2942862" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scanner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Channel / Frequency / Custom)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BAAC69-C499-4D3F-94F4-DD4D05E4F178}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038474" y="1733550"/>
+          <a:ext cx="1428751" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Draft</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DD16CD-7BF2-4266-80AE-3CB275A2FA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="952500"/>
+          <a:ext cx="0" cy="15049500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF7DD53-DD03-4FD7-9368-AA6DC7C56EF8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486776" y="1914525"/>
+          <a:ext cx="361949" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>192930</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338496E7-4B9D-42A4-9D6D-F72C242DD9EE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21286305" y="3657602"/>
+          <a:ext cx="576000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>2429</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="사각형: 둥근 모서리 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FF70DF-7495-495F-93CE-5B535249FC13}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22048304" y="3848103"/>
+          <a:ext cx="576000" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>197954</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F6D57A-074F-4321-95D0-506AFE8DFB2D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22819829" y="4029077"/>
+          <a:ext cx="1097446" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>217005</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA386156-72F5-4EF2-B224-9ED685310C03}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24781980" y="4219576"/>
+          <a:ext cx="1249845" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>131280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC21396-60FF-44E0-8FDC-C309B1780674}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693755" y="4600575"/>
+          <a:ext cx="1044000" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F828C9CE-2235-48AD-BAAE-C9AEBD6B1F18}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11104079" y="4781552"/>
+          <a:ext cx="868846" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>159854</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>113504</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D1323D-CAD0-4DB1-85E1-E5BF601EDB4B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12180404" y="4981578"/>
+          <a:ext cx="468000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>72479</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD57D24-4364-4F21-A8AB-421270788DFD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12885254" y="5172078"/>
+          <a:ext cx="1008000" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F8439C-89E6-4D71-9E30-821263576F5C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951053" y="5543552"/>
+          <a:ext cx="1049821" cy="152397"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>255103</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="사각형: 둥근 모서리 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82ACCC6D-1AC1-4F8E-8EC9-22C2BADCDEB5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14075878" y="5743578"/>
+          <a:ext cx="964097" cy="161922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131279</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="사각형: 둥근 모서리 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F32501-7419-4059-9F8B-DFBB8A1CFB4C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15237929" y="5934078"/>
+          <a:ext cx="773596" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="사각형: 둥근 모서리 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A476A5D-B8EA-4F26-8340-18ACC38E5AAB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="6505577"/>
+          <a:ext cx="838200" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="사각형: 둥근 모서리 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D323FAB-094A-4BEB-A8B6-100FD2D01B18}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16268700" y="6696077"/>
+          <a:ext cx="771525" cy="152398"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>83654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="사각형: 둥근 모서리 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623D5CE6-47FB-4564-AD44-E84E4902A6F2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17228654" y="6877052"/>
+          <a:ext cx="525946" cy="152397"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>93178</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="사각형: 둥근 모서리 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D42E56-9486-4D05-AD13-7FEE3C1DD575}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8256103" y="7267577"/>
+          <a:ext cx="821222" cy="152397"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="사각형: 둥근 모서리 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47F4EF2-C863-4B10-B9D9-044293B5636E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9303854" y="8029577"/>
+          <a:ext cx="535471" cy="152398"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DAC6DE-45D7-47CF-B7EA-344A09303BF3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10103953" y="8791578"/>
+          <a:ext cx="783121" cy="133348"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>182429</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>172577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="사각형: 둥근 모서리 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2745AC8B-5D42-45C8-98BB-B21D1E114851}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20619554" y="9553577"/>
+          <a:ext cx="756000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>207479</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>235229</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>163052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="사각형: 둥근 모서리 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4ADA956-7CD1-435F-89CC-05F7D39B7ECC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21638729" y="10306052"/>
+          <a:ext cx="504000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="사각형: 둥근 모서리 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EEBD326-4BC7-47BB-986D-9117DEF22F32}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17971604" y="7458077"/>
+          <a:ext cx="735496" cy="152397"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>83654</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="사각형: 둥근 모서리 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCFBE94-5F95-482F-9E96-739562132803}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21076754" y="8982078"/>
+          <a:ext cx="516421" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>121754</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>127379</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>172577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="사각형: 둥근 모서리 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B61675-E62B-4BC6-908E-56C79863366E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22305479" y="9744077"/>
+          <a:ext cx="720000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>130455</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>172578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="사각형: 둥근 모서리 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D07640-9FF3-4D8D-8696-2C9EAC6D147F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23238930" y="9934578"/>
+          <a:ext cx="504000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>159854</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="연결선: 꺾임 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E8B43A-72BD-4FAD-A8F7-AA9CC8091728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="4852989"/>
+          <a:ext cx="207479" cy="200589"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>113504</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="연결선: 꺾임 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A47B363-CF64-47D2-99E0-0E7D63C8D882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12648404" y="5053578"/>
+          <a:ext cx="236850" cy="189936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>131279</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="연결선: 꺾임 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90F5531-443D-4218-A470-3F7FE8C4BE15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="5824539"/>
+          <a:ext cx="197954" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="사각형: 둥근 모서리 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E426A736-21E2-4553-8548-AEA1C1608039}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9332431" y="2676526"/>
+          <a:ext cx="792644" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>16980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="사각형: 둥근 모서리 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AD315-28BE-4199-8A14-88ED3F6FFE1E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20019480" y="3457577"/>
+          <a:ext cx="1049820" cy="152398"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="연결선: 꺾임 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3D5346-E623-4506-98CF-234E021EFE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21069300" y="3533776"/>
+          <a:ext cx="217005" cy="195826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>192930</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="연결선: 꺾임 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19955823-7D74-4775-B79F-E2266E1A19C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21862305" y="3729602"/>
+          <a:ext cx="185999" cy="189937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>2429</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>197954</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="연결선: 꺾임 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CD7CC1-3868-421A-96C3-EC2947FFD082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22624304" y="3919539"/>
+          <a:ext cx="195525" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 연결선 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6EF009-F817-48A2-B7B4-0E92A888FDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="962025"/>
+          <a:ext cx="0" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>178904</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="사각형: 둥근 모서리 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CB1090-C4A2-42CF-94E8-008F08290871}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21372029" y="11068053"/>
+          <a:ext cx="783121" cy="161922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2EE1E3-01B3-4170-BC67-AD6737736184}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23429429" y="12963526"/>
+          <a:ext cx="773596" cy="161923"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>159854</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="사각형: 둥근 모서리 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E2447E-6950-4D9E-A52E-88EAE587D4DA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24448604" y="13735051"/>
+          <a:ext cx="773596" cy="161923"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>7454</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="사각형: 둥근 모서리 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198A65A8-9AD7-4F5B-BFB9-F816514825F8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25486829" y="14497051"/>
+          <a:ext cx="773596" cy="161923"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>7454</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="사각형: 둥근 모서리 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EE036D-A4EF-4A6C-A3D0-4B28A39B270E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22391204" y="12020553"/>
+          <a:ext cx="783121" cy="161922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>74128</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="사각형: 둥근 모서리 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332BA573-CD94-47A3-88B7-C181B3D28646}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26506003" y="15259051"/>
+          <a:ext cx="1811821" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>7454</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="연결선: 꺾임 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83701A57-D9D1-440E-B226-6D57246F92A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22155150" y="11149014"/>
+          <a:ext cx="236054" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="연결선: 꺾임 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003CAC54-6605-4281-ABEE-50048B80297C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077325" y="7343776"/>
+          <a:ext cx="226529" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="연결선: 꺾임 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82BEBD0-E30A-4CA9-81A0-62BA6BEE9C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="8105776"/>
+          <a:ext cx="264628" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>182429</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>207479</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="연결선: 꺾임 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B861D37-A166-434C-B271-5838474BC580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21375554" y="9625577"/>
+          <a:ext cx="263175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>159854</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="연결선: 꺾임 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DD4F50-421E-4089-973D-39322CA0DC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="13044488"/>
+          <a:ext cx="245579" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>7454</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="연결선: 꺾임 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F91D50D-4862-49E7-94D8-9DC0872D1890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25222200" y="13816013"/>
+          <a:ext cx="264629" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>74128</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="연결선: 꺾임 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25CF797-A71F-44A0-8824-E97749DB6EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26260425" y="14578013"/>
+          <a:ext cx="245578" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>102704</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>166454</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="사각형: 둥근 모서리 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA4E5B6-E3E6-43F2-8993-739BE142251A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20381429" y="8410578"/>
+          <a:ext cx="540000" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>102704</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>166454</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="사각형: 둥근 모서리 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8EB5CA-1F6A-4889-873B-14ABEFE30FE7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19667054" y="8210553"/>
+          <a:ext cx="540000" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>121754</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="사각형: 둥근 모서리 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF6510B-D3D1-4470-9D0C-B0B18D58C4FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18933629" y="7648578"/>
+          <a:ext cx="716446" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>74129</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="사각형: 둥근 모서리 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C259D3A4-4BCF-4911-8574-E54EC8798729}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21781604" y="9163053"/>
+          <a:ext cx="325921" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>130455</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>172578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="사각형: 둥근 모서리 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7314356D-6AFC-4937-AB6B-79AEB5E4C8A0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23953305" y="10506078"/>
+          <a:ext cx="504000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>120930</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>172578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="사각형: 둥근 모서리 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB334E-1832-4EF8-BF9B-440923AA0C17}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24658155" y="10696578"/>
+          <a:ext cx="504000" cy="144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>72479</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>255103</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="연결선: 꺾임 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7D1074-068B-4934-B565-329D7071B65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13893254" y="5243514"/>
+          <a:ext cx="182624" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>74129</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="사각형: 둥근 모서리 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E78CF6-83AB-48E6-9536-675BAEA2510F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23448479" y="11239502"/>
+          <a:ext cx="506896" cy="171448"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>74129</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="연결선: 꺾임 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D457AF19-10DA-43B7-BA73-5C763F313E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23448479" y="4291013"/>
+          <a:ext cx="2583346" cy="7034213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8849"/>
+            <a:gd name="adj2" fmla="val 49898"/>
+            <a:gd name="adj3" fmla="val 108849"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="사각형: 둥근 모서리 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C740C1-8018-40F7-B27E-27A61F0BAB76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24181904" y="11449053"/>
+          <a:ext cx="735496" cy="152398"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>83654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="연결선: 꺾임 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2183C9-ED9A-49F5-AC98-404B2E7CA490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17040225" y="6772276"/>
+          <a:ext cx="188429" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="연결선: 꺾임 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EF2419-0FE3-45A1-9476-D236497A827D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="6953251"/>
+          <a:ext cx="217004" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>121754</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="연결선: 꺾임 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC0B9A6-3E30-4333-9D9B-05EF0403F6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18707100" y="7534276"/>
+          <a:ext cx="226529" cy="185738"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>166454</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>102704</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="연결선: 꺾임 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057F1823-1444-4D61-8403-5D1DF199F877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20207054" y="8281989"/>
+          <a:ext cx="174375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>166454</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>83654</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="연결선: 꺾임 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3943FA22-9FBB-4EDF-B691-093252EE8306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20921429" y="8482014"/>
+          <a:ext cx="155325" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>74129</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="연결선: 꺾임 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA50BE6C-7726-4999-A3F7-76A22AC15331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21593175" y="9053514"/>
+          <a:ext cx="188429" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>121754</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="연결선: 꺾임 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4511B4B3-B529-41F9-AFFF-DBD9B3D3C4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22107525" y="9234489"/>
+          <a:ext cx="197954" cy="581588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>127379</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="연결선: 꺾임 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F94921-0CFB-48DF-9841-71DFB7D5CB17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23025479" y="9816077"/>
+          <a:ext cx="213451" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>130455</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="연결선: 꺾임 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F509465-D884-43E9-98C1-C3E8841CEDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23742930" y="10006578"/>
+          <a:ext cx="210375" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>130455</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="연결선: 꺾임 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201B7DB6-2C24-46F8-A308-5A5F868233D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24457305" y="10578078"/>
+          <a:ext cx="200850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="연결선: 꺾임 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B633532-1246-4D10-852C-93EB99AE8A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23955375" y="11325226"/>
+          <a:ext cx="226529" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="사각형: 둥근 모서리 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A71582-11E7-4752-867C-536A885E9C8B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25134404" y="11639552"/>
+          <a:ext cx="506896" cy="171448"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="연결선: 꺾임 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4211567-4257-495C-9B7E-2001AD2EC3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24917400" y="11525252"/>
+          <a:ext cx="217004" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>83653</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="사각형: 둥근 모서리 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7900BA-30BB-4A98-9753-251021D2CE0E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25839253" y="12211052"/>
+          <a:ext cx="687871" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="사각형: 둥근 모서리 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08316F6F-DE2D-42E4-86D8-02DE668F6FB1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26810803" y="12401552"/>
+          <a:ext cx="687871" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>83653</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="연결선: 꺾임 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D968922-8583-4E62-89F0-77D93E54D89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25641300" y="11725276"/>
+          <a:ext cx="197953" cy="557213"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="연결선: 꺾임 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8358D8A-B942-4604-A83A-FBAE6C01D83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26527124" y="12282489"/>
+          <a:ext cx="283679" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="사각형: 둥근 모서리 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A05E08-9255-475C-A255-49ACA9BE6EDE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25382055" y="13173078"/>
+          <a:ext cx="745020" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="사각형: 둥근 모서리 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C35CA7B-9671-42D7-8C9A-B052F1A173E5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26325030" y="13354053"/>
+          <a:ext cx="745020" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>120930</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>102705</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="연결선: 꺾임 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33326AF-7832-4AA2-A421-9FF87D94E1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25162155" y="10768578"/>
+          <a:ext cx="219900" cy="2475936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="연결선: 꺾임 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AC4249-9268-4263-A172-EB0D6C4BF970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26127075" y="13244514"/>
+          <a:ext cx="197955" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>112230</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="사각형: 둥근 모서리 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42038C5-26F5-4054-A768-AF09FC953C6F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27296580" y="14706603"/>
+          <a:ext cx="745020" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>93180</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="사각형: 둥근 모서리 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5E6BA6-6965-40C1-A46E-B25CEA60E2E2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28230030" y="14878053"/>
+          <a:ext cx="745020" cy="142872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>121753</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="사각형: 둥근 모서리 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F17DFB-8211-48BA-BD77-C48F2E864487}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27782353" y="13944602"/>
+          <a:ext cx="687871" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>131278</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="사각형: 둥근 모서리 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D78193-68D0-4047-AAF8-B6B95451021A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28744378" y="14116052"/>
+          <a:ext cx="687871" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>83655</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="사각형: 둥근 모서리 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392F9DAB-3D4B-4EF1-89A4-B4090EBE62F8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29173005" y="15459078"/>
+          <a:ext cx="2192820" cy="133347"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>112228</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="사각형: 둥근 모서리 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0467814-434B-49DF-9D6D-88B5E9E8C567}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31582828" y="15649577"/>
+          <a:ext cx="954572" cy="142873"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>74128</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="사각형: 둥근 모서리 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B767748D-6CA5-427B-A2B3-695D981C3266}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32735353" y="16030577"/>
+          <a:ext cx="1487972" cy="123823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>36028</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="사각형: 둥근 모서리 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4151F00-066D-4E53-8D8A-249099A273C4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34364128" y="16392525"/>
+          <a:ext cx="821222" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>???</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="사각형: 둥근 모서리 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2E475E-19FA-41DD-84F1-7B8470CDDD61}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086851" y="2114551"/>
+          <a:ext cx="514349" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>150332</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="사각형: 둥근 모서리 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8C491E-A6A3-45CE-B040-002C1911FB7E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10370657" y="2876548"/>
+          <a:ext cx="440218" cy="152402"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="연결선: 꺾임 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9630C171-F45B-4005-917F-4DF8EBB45DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737755" y="4672013"/>
+          <a:ext cx="213298" cy="947738"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="연결선: 꺾임 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531BEEFB-678D-4082-AFEB-556372353701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000874" y="5619751"/>
+          <a:ext cx="238126" cy="957263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="연결선: 꺾임 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF46A17F-123D-4349-9A9D-5A5165CE8839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="2000250"/>
+          <a:ext cx="238126" cy="195263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="연결선: 꺾임 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686B4B4E-0D99-4C8C-962E-51BBC857D9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="2195513"/>
+          <a:ext cx="245581" cy="566738"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>150332</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="연결선: 꺾임 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D9364A-6362-40DC-876E-8309BB22C540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="2762251"/>
+          <a:ext cx="245582" cy="190498"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>93178</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="연결선: 꺾임 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62683B21-5F63-4321-9D78-B0136D2B789A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="6577014"/>
+          <a:ext cx="178903" cy="766762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="연결선: 꺾임 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A8551B-9630-4AF3-92B7-1A0CC187CBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="2952749"/>
+          <a:ext cx="293204" cy="1900240"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="사각형: 둥근 모서리 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E2E724-0733-4C5A-9962-C9B23D53B06B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581524" y="1724024"/>
+          <a:ext cx="2676525" cy="161926"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Confirm</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>131280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="연결선: 꺾임 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0813488-F8AA-4ABC-AAD0-481D36351C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="1814513"/>
+          <a:ext cx="226530" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>112229</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="연결선: 꺾임 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F68E08-3CEB-4264-BC74-8D53E37FFFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10887074" y="4852989"/>
+          <a:ext cx="217005" cy="4005263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="연결선: 꺾임 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C11DE7-21FA-4C86-8319-8AF83845AF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16011525" y="6005514"/>
+          <a:ext cx="257175" cy="766762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="직선 연결선 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06B356D-9907-48B5-91D4-6FA9CAFFF387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19545300" y="952500"/>
+          <a:ext cx="0" cy="15049500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -12876,15 +19443,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
@@ -12894,11 +19461,11 @@
       <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="40" t="s">
         <v>40</v>
       </c>
@@ -12913,13 +19480,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -12934,9 +19501,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
@@ -12949,8 +19516,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="42" t="s">
         <v>41</v>
       </c>
@@ -12966,17 +19533,17 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="82" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="59" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="44"/>
@@ -12985,93 +19552,93 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="44"/>
       <c r="H10" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="44"/>
       <c r="H11" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="44"/>
       <c r="H12" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="44"/>
       <c r="H13" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="44"/>
       <c r="H14" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="72" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="59" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="44"/>
@@ -13080,80 +19647,80 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="44"/>
       <c r="H16" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="74"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="44"/>
       <c r="H17" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="74"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="74"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="72" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="59" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="44"/>
@@ -13162,28 +19729,28 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="67"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="72" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="59" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="44"/>
@@ -13192,34 +19759,34 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="74"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="44"/>
       <c r="H24" s="42" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="67"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="44"/>
       <c r="H25" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="42" t="s">
         <v>76</v>
       </c>
@@ -13235,8 +19802,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="42" t="s">
         <v>79</v>
       </c>
@@ -13252,8 +19819,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="42" t="s">
         <v>82</v>
       </c>
@@ -13269,8 +19836,8 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="42" t="s">
         <v>93</v>
       </c>
@@ -13286,8 +19853,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="42" t="s">
         <v>96</v>
       </c>
@@ -13303,8 +19870,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="42" t="s">
         <v>99</v>
       </c>
@@ -13320,8 +19887,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65" t="s">
+      <c r="B32" s="80"/>
+      <c r="C32" s="81" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -13339,15 +19906,15 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="75" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="61" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="59" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="45"/>
@@ -13356,13 +19923,13 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="76"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="69"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45" t="s">
         <v>92</v>
@@ -13370,15 +19937,15 @@
       <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="77" t="s">
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="69" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="59" t="s">
         <v>103</v>
       </c>
       <c r="G35" s="45"/>
@@ -13388,13 +19955,13 @@
       <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="45"/>
       <c r="H36" s="45" t="s">
         <v>52</v>
@@ -13402,13 +19969,13 @@
       <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="70"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="45"/>
       <c r="H37" s="45" t="s">
         <v>53</v>
@@ -13416,67 +19983,67 @@
       <c r="I37" s="46"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="45"/>
       <c r="H38" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="78"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="70"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="45"/>
       <c r="H39" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="78"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="70"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="45"/>
       <c r="H40" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="69"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="45"/>
       <c r="H41" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="75" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="61" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="59" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="45"/>
@@ -13485,41 +20052,41 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="70"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="45"/>
       <c r="H43" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="76"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="60"/>
       <c r="G44" s="45"/>
       <c r="H44" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="75" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="61" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="59" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="45"/>
@@ -13528,132 +20095,132 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="45"/>
       <c r="H46" s="42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="70"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="45"/>
       <c r="H47" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="70"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="45"/>
       <c r="H48" s="42" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="70"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="45"/>
       <c r="H49" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="70"/>
+      <c r="F50" s="66"/>
       <c r="G50" s="45"/>
       <c r="H50" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="70"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="45"/>
       <c r="H51" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="70"/>
+      <c r="F52" s="66"/>
       <c r="G52" s="45"/>
       <c r="H52" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="70"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="45"/>
       <c r="H53" s="45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="76"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="69"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="67" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="68" t="s">
+      <c r="F55" s="59" t="s">
         <v>114</v>
       </c>
       <c r="G55" s="45"/>
@@ -13662,28 +20229,28 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="82"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="69"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="45"/>
       <c r="H56" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="75" t="s">
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="61" t="s">
         <v>115</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="59" t="s">
         <v>116</v>
       </c>
       <c r="G57" s="45"/>
@@ -13692,67 +20259,67 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="70"/>
+      <c r="F58" s="66"/>
       <c r="G58" s="45"/>
       <c r="H58" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="70"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="45"/>
       <c r="H59" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="70"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="76"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="69"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="45"/>
       <c r="H61" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="75" t="s">
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="61" t="s">
         <v>119</v>
       </c>
       <c r="E62" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="68" t="s">
+      <c r="F62" s="59" t="s">
         <v>120</v>
       </c>
       <c r="G62" s="45"/>
@@ -13761,28 +20328,28 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="76"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="62"/>
       <c r="E63" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="69"/>
+      <c r="F63" s="60"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="75" t="s">
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="61" t="s">
         <v>123</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="59" t="s">
         <v>124</v>
       </c>
       <c r="G64" s="45"/>
@@ -13791,26 +20358,26 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="64"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="76"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="69"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="75" t="s">
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="61" t="s">
         <v>125</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="59" t="s">
         <v>126</v>
       </c>
       <c r="G66" s="45"/>
@@ -13819,47 +20386,47 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="80"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="70"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="45"/>
       <c r="H67" s="42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="80"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="70"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="45"/>
       <c r="H68" s="42" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="64"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="76"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="69"/>
+      <c r="F69" s="60"/>
       <c r="G69" s="45"/>
       <c r="H69" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="64"/>
-      <c r="C70" s="65" t="s">
+      <c r="B70" s="80"/>
+      <c r="C70" s="81" t="s">
         <v>152</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -13877,8 +20444,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="64"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="45" t="s">
         <v>143</v>
       </c>
@@ -13894,8 +20461,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="64"/>
-      <c r="C72" s="65"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="45" t="s">
         <v>146</v>
       </c>
@@ -13911,15 +20478,15 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="75" t="s">
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="F73" s="59" t="s">
         <v>154</v>
       </c>
       <c r="G73" s="45"/>
@@ -13928,28 +20495,28 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="64"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="76"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="62"/>
       <c r="E74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="69"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="64"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="75" t="s">
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="61" t="s">
         <v>157</v>
       </c>
       <c r="E75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="68" t="s">
+      <c r="F75" s="59" t="s">
         <v>158</v>
       </c>
       <c r="G75" s="45"/>
@@ -13958,34 +20525,34 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="64"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="80"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="65"/>
       <c r="E76" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="70"/>
+      <c r="F76" s="66"/>
       <c r="G76" s="45"/>
       <c r="H76" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="64"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="76"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="62"/>
       <c r="E77" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="69"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="45"/>
       <c r="H77" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="51" t="s">
         <v>162</v>
       </c>
@@ -14001,8 +20568,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="64"/>
-      <c r="C79" s="65"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="51" t="s">
         <v>164</v>
       </c>
@@ -14018,15 +20585,15 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
       <c r="D80" s="51" t="s">
         <v>169</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="68" t="s">
+      <c r="F80" s="59" t="s">
         <v>174</v>
       </c>
       <c r="G80" s="45"/>
@@ -14035,34 +20602,34 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="64"/>
-      <c r="C81" s="65"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="51"/>
       <c r="E81" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="70"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="64"/>
-      <c r="C82" s="65"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="51"/>
       <c r="E82" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="69"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="64"/>
-      <c r="C83" s="65"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="51" t="s">
         <v>173</v>
       </c>
@@ -14078,17 +20645,17 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="64"/>
-      <c r="C84" s="83" t="s">
+      <c r="B84" s="80"/>
+      <c r="C84" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="75" t="s">
+      <c r="D84" s="61" t="s">
         <v>134</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="68" t="s">
+      <c r="F84" s="59" t="s">
         <v>135</v>
       </c>
       <c r="G84" s="45"/>
@@ -14097,28 +20664,28 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="64"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="76"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="62"/>
       <c r="E85" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="69"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="64"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="75" t="s">
+      <c r="B86" s="80"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="61" t="s">
         <v>138</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="59" t="s">
         <v>139</v>
       </c>
       <c r="G86" s="45"/>
@@ -14127,21 +20694,21 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="64"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="76"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="62"/>
       <c r="E87" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="69"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="45"/>
       <c r="H87" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="64"/>
-      <c r="C88" s="84"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="45" t="s">
         <v>141</v>
       </c>
@@ -14155,8 +20722,8 @@
       <c r="H88" s="45"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="64"/>
-      <c r="C89" s="84"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="45" t="s">
         <v>166</v>
       </c>
@@ -14172,8 +20739,8 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="64"/>
-      <c r="C90" s="84"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="45" t="s">
         <v>176</v>
       </c>
@@ -14189,7 +20756,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="64"/>
+      <c r="B91" s="80"/>
       <c r="C91" s="50" t="s">
         <v>178</v>
       </c>
@@ -14208,7 +20775,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="44" t="s">
@@ -14223,7 +20790,7 @@
       <c r="H92" s="45"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="64"/>
+      <c r="B93" s="80"/>
       <c r="C93" s="44" t="s">
         <v>25</v>
       </c>
@@ -14236,7 +20803,7 @@
       <c r="H93" s="45"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="64"/>
+      <c r="B94" s="80"/>
       <c r="C94" s="44" t="s">
         <v>0</v>
       </c>
@@ -14249,7 +20816,7 @@
       <c r="H94" s="45"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="64"/>
+      <c r="B95" s="80"/>
       <c r="C95" s="44" t="s">
         <v>1</v>
       </c>
@@ -14262,7 +20829,7 @@
       <c r="H95" s="45"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="64"/>
+      <c r="B96" s="80"/>
       <c r="C96" s="44" t="s">
         <v>2</v>
       </c>
@@ -14275,7 +20842,7 @@
       <c r="H96" s="45"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="80" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="41" t="s">
@@ -14290,7 +20857,7 @@
       <c r="H97" s="45"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="64"/>
+      <c r="B98" s="80"/>
       <c r="C98" s="41" t="s">
         <v>28</v>
       </c>
@@ -14303,7 +20870,7 @@
       <c r="H98" s="45"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="64"/>
+      <c r="B99" s="80"/>
       <c r="C99" s="44" t="s">
         <v>29</v>
       </c>
@@ -14316,7 +20883,7 @@
       <c r="H99" s="45"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="80" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="41" t="s">
@@ -14333,7 +20900,7 @@
       <c r="H100" s="45"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="64"/>
+      <c r="B101" s="80"/>
       <c r="C101" s="41" t="s">
         <v>33</v>
       </c>
@@ -14348,7 +20915,7 @@
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="64"/>
+      <c r="B102" s="80"/>
       <c r="C102" s="44" t="s">
         <v>35</v>
       </c>
@@ -14374,7 +20941,7 @@
       <c r="H103" s="45"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="75" t="s">
         <v>180</v>
       </c>
       <c r="C104" s="45" t="s">
@@ -14387,7 +20954,7 @@
       <c r="H104" s="45"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="60"/>
+      <c r="B105" s="76"/>
       <c r="C105" s="45" t="s">
         <v>182</v>
       </c>
@@ -14398,7 +20965,7 @@
       <c r="H105" s="45"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="61"/>
+      <c r="B106" s="77"/>
       <c r="C106" s="45" t="s">
         <v>237</v>
       </c>
@@ -14410,38 +20977,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D33:D34"/>
     <mergeCell ref="B104:B106"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:D4"/>
@@ -14458,6 +20993,38 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F80:F82"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15684,7 +22251,7 @@
   </sheetPr>
   <dimension ref="A2:GO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -17036,4 +23603,1358 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C239C8-B243-427B-A240-0DC5D3B038FC}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:GM87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AD22" sqref="AD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="2.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="2" customWidth="1"/>
+    <col min="7" max="60" width="3.375" style="3" customWidth="1"/>
+    <col min="61" max="67" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="215" width="3.125" style="3" customWidth="1"/>
+    <col min="216" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" spans="1:195" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="5"/>
+      <c r="G6" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="BU6" s="23"/>
+      <c r="BV6" s="23"/>
+      <c r="BW6" s="23"/>
+      <c r="BX6" s="23"/>
+      <c r="BY6" s="23"/>
+      <c r="BZ6" s="23"/>
+      <c r="CA6" s="23"/>
+      <c r="CB6" s="23"/>
+      <c r="CC6" s="23"/>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="23"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="53"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="53"/>
+      <c r="CO6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP6" s="54"/>
+      <c r="CQ6" s="54"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
+      <c r="CT6" s="54"/>
+      <c r="CU6" s="54"/>
+      <c r="CV6" s="54"/>
+      <c r="CW6" s="54"/>
+      <c r="CX6" s="54"/>
+      <c r="CY6" s="54"/>
+      <c r="CZ6" s="54"/>
+      <c r="DA6" s="54"/>
+      <c r="DB6" s="54"/>
+      <c r="DC6" s="54"/>
+      <c r="DD6" s="54"/>
+      <c r="DE6" s="54"/>
+      <c r="DF6" s="54"/>
+      <c r="DG6" s="54"/>
+      <c r="DH6" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI6" s="56"/>
+      <c r="DJ6" s="56"/>
+      <c r="DK6" s="56"/>
+      <c r="DL6" s="56"/>
+      <c r="DM6" s="56"/>
+      <c r="DN6" s="56"/>
+      <c r="DO6" s="56"/>
+      <c r="DP6" s="56"/>
+      <c r="DQ6" s="56"/>
+      <c r="DR6" s="56"/>
+      <c r="DS6" s="56"/>
+      <c r="DT6" s="56"/>
+      <c r="DU6" s="56"/>
+      <c r="DV6" s="56"/>
+      <c r="DW6" s="56"/>
+      <c r="DX6" s="56"/>
+      <c r="DY6" s="56"/>
+      <c r="DZ6" s="56"/>
+      <c r="EA6" s="56"/>
+      <c r="EB6" s="56"/>
+      <c r="EC6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="EX6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="FS6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="GM6" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:195" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="7"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
+      <c r="J7" s="27">
+        <v>7</v>
+      </c>
+      <c r="K7" s="27">
+        <v>8</v>
+      </c>
+      <c r="L7" s="27">
+        <v>9</v>
+      </c>
+      <c r="M7" s="27">
+        <v>10</v>
+      </c>
+      <c r="N7" s="27">
+        <v>13</v>
+      </c>
+      <c r="O7" s="27">
+        <v>14</v>
+      </c>
+      <c r="P7" s="27">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>16</v>
+      </c>
+      <c r="R7" s="27">
+        <v>17</v>
+      </c>
+      <c r="S7" s="27">
+        <v>20</v>
+      </c>
+      <c r="T7" s="27">
+        <v>21</v>
+      </c>
+      <c r="U7" s="27">
+        <v>22</v>
+      </c>
+      <c r="V7" s="27">
+        <v>23</v>
+      </c>
+      <c r="W7" s="27">
+        <v>24</v>
+      </c>
+      <c r="X7" s="27">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>31</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="30">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="30">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>11</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>13</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>17</v>
+      </c>
+      <c r="AN7" s="30">
+        <v>18</v>
+      </c>
+      <c r="AO7" s="30">
+        <v>19</v>
+      </c>
+      <c r="AP7" s="30">
+        <v>20</v>
+      </c>
+      <c r="AQ7" s="30">
+        <v>21</v>
+      </c>
+      <c r="AR7" s="30">
+        <v>24</v>
+      </c>
+      <c r="AS7" s="30">
+        <v>25</v>
+      </c>
+      <c r="AT7" s="30">
+        <v>26</v>
+      </c>
+      <c r="AU7" s="30">
+        <v>27</v>
+      </c>
+      <c r="AV7" s="30">
+        <v>28</v>
+      </c>
+      <c r="AW7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="20">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="20">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="20">
+        <v>5</v>
+      </c>
+      <c r="BB7" s="20">
+        <v>8</v>
+      </c>
+      <c r="BC7" s="20">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="20">
+        <v>10</v>
+      </c>
+      <c r="BE7" s="20">
+        <v>11</v>
+      </c>
+      <c r="BF7" s="20">
+        <v>12</v>
+      </c>
+      <c r="BG7" s="20">
+        <v>15</v>
+      </c>
+      <c r="BH7" s="20">
+        <v>16</v>
+      </c>
+      <c r="BI7" s="20">
+        <v>17</v>
+      </c>
+      <c r="BJ7" s="20">
+        <v>18</v>
+      </c>
+      <c r="BK7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BL7" s="20">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="20">
+        <v>23</v>
+      </c>
+      <c r="BN7" s="20">
+        <v>24</v>
+      </c>
+      <c r="BO7" s="21">
+        <v>25</v>
+      </c>
+      <c r="BP7" s="20">
+        <v>26</v>
+      </c>
+      <c r="BQ7" s="20">
+        <v>29</v>
+      </c>
+      <c r="BR7" s="20">
+        <v>30</v>
+      </c>
+      <c r="BS7" s="20">
+        <v>31</v>
+      </c>
+      <c r="BT7" s="24">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV7" s="24">
+        <v>5</v>
+      </c>
+      <c r="BW7" s="24">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="24">
+        <v>7</v>
+      </c>
+      <c r="BY7" s="24">
+        <v>8</v>
+      </c>
+      <c r="BZ7" s="24">
+        <v>9</v>
+      </c>
+      <c r="CA7" s="24">
+        <v>12</v>
+      </c>
+      <c r="CB7" s="24">
+        <v>13</v>
+      </c>
+      <c r="CC7" s="24">
+        <v>14</v>
+      </c>
+      <c r="CD7" s="24">
+        <v>16</v>
+      </c>
+      <c r="CE7" s="24">
+        <v>19</v>
+      </c>
+      <c r="CF7" s="24">
+        <v>20</v>
+      </c>
+      <c r="CG7" s="24">
+        <v>21</v>
+      </c>
+      <c r="CH7" s="24">
+        <v>22</v>
+      </c>
+      <c r="CI7" s="24">
+        <v>23</v>
+      </c>
+      <c r="CJ7" s="24">
+        <v>26</v>
+      </c>
+      <c r="CK7" s="24">
+        <v>27</v>
+      </c>
+      <c r="CL7" s="24">
+        <v>28</v>
+      </c>
+      <c r="CM7" s="24">
+        <v>29</v>
+      </c>
+      <c r="CN7" s="24">
+        <v>30</v>
+      </c>
+      <c r="CO7" s="27">
+        <v>2</v>
+      </c>
+      <c r="CP7" s="27">
+        <v>3</v>
+      </c>
+      <c r="CQ7" s="27">
+        <v>4</v>
+      </c>
+      <c r="CR7" s="27">
+        <v>5</v>
+      </c>
+      <c r="CS7" s="27">
+        <v>6</v>
+      </c>
+      <c r="CT7" s="27">
+        <v>9</v>
+      </c>
+      <c r="CU7" s="27">
+        <v>10</v>
+      </c>
+      <c r="CV7" s="27">
+        <v>11</v>
+      </c>
+      <c r="CW7" s="27">
+        <v>16</v>
+      </c>
+      <c r="CX7" s="27">
+        <v>17</v>
+      </c>
+      <c r="CY7" s="27">
+        <v>18</v>
+      </c>
+      <c r="CZ7" s="27">
+        <v>19</v>
+      </c>
+      <c r="DA7" s="27">
+        <v>20</v>
+      </c>
+      <c r="DB7" s="27">
+        <v>23</v>
+      </c>
+      <c r="DC7" s="27">
+        <v>24</v>
+      </c>
+      <c r="DD7" s="27">
+        <v>25</v>
+      </c>
+      <c r="DE7" s="27">
+        <v>26</v>
+      </c>
+      <c r="DF7" s="27">
+        <v>27</v>
+      </c>
+      <c r="DG7" s="27">
+        <v>30</v>
+      </c>
+      <c r="DH7" s="57">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="57">
+        <v>2</v>
+      </c>
+      <c r="DJ7" s="57">
+        <v>4</v>
+      </c>
+      <c r="DK7" s="57">
+        <v>7</v>
+      </c>
+      <c r="DL7" s="57">
+        <v>8</v>
+      </c>
+      <c r="DM7" s="57">
+        <v>10</v>
+      </c>
+      <c r="DN7" s="57">
+        <v>11</v>
+      </c>
+      <c r="DO7" s="57">
+        <v>14</v>
+      </c>
+      <c r="DP7" s="57">
+        <v>15</v>
+      </c>
+      <c r="DQ7" s="57">
+        <v>16</v>
+      </c>
+      <c r="DR7" s="57">
+        <v>17</v>
+      </c>
+      <c r="DS7" s="57">
+        <v>18</v>
+      </c>
+      <c r="DT7" s="57">
+        <v>21</v>
+      </c>
+      <c r="DU7" s="57">
+        <v>22</v>
+      </c>
+      <c r="DV7" s="57">
+        <v>23</v>
+      </c>
+      <c r="DW7" s="57">
+        <v>24</v>
+      </c>
+      <c r="DX7" s="57">
+        <v>25</v>
+      </c>
+      <c r="DY7" s="57">
+        <v>28</v>
+      </c>
+      <c r="DZ7" s="57">
+        <v>29</v>
+      </c>
+      <c r="EA7" s="57">
+        <v>30</v>
+      </c>
+      <c r="EB7" s="57">
+        <v>31</v>
+      </c>
+      <c r="EC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="ED7" s="6">
+        <v>4</v>
+      </c>
+      <c r="EE7" s="6">
+        <v>5</v>
+      </c>
+      <c r="EF7" s="6">
+        <v>6</v>
+      </c>
+      <c r="EG7" s="6">
+        <v>7</v>
+      </c>
+      <c r="EH7" s="6">
+        <v>8</v>
+      </c>
+      <c r="EI7" s="6">
+        <v>11</v>
+      </c>
+      <c r="EJ7" s="6">
+        <v>12</v>
+      </c>
+      <c r="EK7" s="6">
+        <v>13</v>
+      </c>
+      <c r="EL7" s="6">
+        <v>14</v>
+      </c>
+      <c r="EM7" s="6">
+        <v>15</v>
+      </c>
+      <c r="EN7" s="6">
+        <v>18</v>
+      </c>
+      <c r="EO7" s="6">
+        <v>19</v>
+      </c>
+      <c r="EP7" s="6">
+        <v>20</v>
+      </c>
+      <c r="EQ7" s="6">
+        <v>21</v>
+      </c>
+      <c r="ER7" s="6">
+        <v>22</v>
+      </c>
+      <c r="ES7" s="6">
+        <v>25</v>
+      </c>
+      <c r="ET7" s="6">
+        <v>26</v>
+      </c>
+      <c r="EU7" s="6">
+        <v>27</v>
+      </c>
+      <c r="EV7" s="6">
+        <v>28</v>
+      </c>
+      <c r="EW7" s="6">
+        <v>29</v>
+      </c>
+      <c r="EX7" s="6">
+        <v>2</v>
+      </c>
+      <c r="EY7" s="6">
+        <v>3</v>
+      </c>
+      <c r="EZ7" s="6">
+        <v>4</v>
+      </c>
+      <c r="FA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="FB7" s="6">
+        <v>6</v>
+      </c>
+      <c r="FC7" s="6">
+        <v>9</v>
+      </c>
+      <c r="FD7" s="6">
+        <v>10</v>
+      </c>
+      <c r="FE7" s="6">
+        <v>11</v>
+      </c>
+      <c r="FF7" s="6">
+        <v>12</v>
+      </c>
+      <c r="FG7" s="6">
+        <v>13</v>
+      </c>
+      <c r="FH7" s="6">
+        <v>16</v>
+      </c>
+      <c r="FI7" s="6">
+        <v>17</v>
+      </c>
+      <c r="FJ7" s="6">
+        <v>18</v>
+      </c>
+      <c r="FK7" s="6">
+        <v>19</v>
+      </c>
+      <c r="FL7" s="6">
+        <v>20</v>
+      </c>
+      <c r="FM7" s="6">
+        <v>23</v>
+      </c>
+      <c r="FN7" s="6">
+        <v>24</v>
+      </c>
+      <c r="FO7" s="6">
+        <v>26</v>
+      </c>
+      <c r="FP7" s="6">
+        <v>27</v>
+      </c>
+      <c r="FQ7" s="6">
+        <v>30</v>
+      </c>
+      <c r="FR7" s="6">
+        <v>31</v>
+      </c>
+      <c r="FS7" s="6">
+        <v>2</v>
+      </c>
+      <c r="FT7" s="6">
+        <v>3</v>
+      </c>
+      <c r="FU7" s="6">
+        <v>6</v>
+      </c>
+      <c r="FV7" s="6">
+        <v>7</v>
+      </c>
+      <c r="FW7" s="6">
+        <v>8</v>
+      </c>
+      <c r="FX7" s="6">
+        <v>9</v>
+      </c>
+      <c r="FY7" s="6">
+        <v>10</v>
+      </c>
+      <c r="FZ7" s="6">
+        <v>13</v>
+      </c>
+      <c r="GA7" s="6">
+        <v>14</v>
+      </c>
+      <c r="GB7" s="6">
+        <v>15</v>
+      </c>
+      <c r="GC7" s="6">
+        <v>16</v>
+      </c>
+      <c r="GD7" s="6">
+        <v>17</v>
+      </c>
+      <c r="GE7" s="6">
+        <v>20</v>
+      </c>
+      <c r="GF7" s="6">
+        <v>21</v>
+      </c>
+      <c r="GG7" s="6">
+        <v>22</v>
+      </c>
+      <c r="GH7" s="6">
+        <v>23</v>
+      </c>
+      <c r="GI7" s="6">
+        <v>28</v>
+      </c>
+      <c r="GJ7" s="6">
+        <v>29</v>
+      </c>
+      <c r="GK7" s="6">
+        <v>30</v>
+      </c>
+      <c r="GL7" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="C14" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:195" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="C19" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="C21" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="C22" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="C44" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="C48" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="C52" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="3">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="C55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="C56" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="3">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SSBBUe_Schedule.xlsx
+++ b/SSBBUe_Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691C8FB-0678-47E1-8E2B-4A016C195688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="793" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="793" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="breakdown cmd" sheetId="14" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="TimeLine-without RET" sheetId="15" r:id="rId3"/>
     <sheet name="TimeLine" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="252">
   <si>
     <t>RSSI</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1974,11 +1973,15 @@
     <t>April</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2449,53 +2452,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2518,6 +2476,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2527,14 +2500,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12567,13 +12570,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>53744</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>167681</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12664,89 +12667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BAAC69-C499-4D3F-94F4-DD4D05E4F178}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6CD5892F-B172-4B73-924E-AA92012E61DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3038474" y="1733550"/>
-          <a:ext cx="1428751" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Draft</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12795,13 +12722,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -12866,13 +12793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>192930</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>182102</xdr:rowOff>
@@ -12936,13 +12863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>2429</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -13006,13 +12933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>197954</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>89</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -13076,13 +13003,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>217005</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -13146,14 +13073,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>131280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112230</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146580</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127530</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -13173,7 +13100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4693755" y="4600575"/>
+          <a:off x="5189055" y="4600575"/>
           <a:ext cx="1044000" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -13214,13 +13141,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -13282,13 +13209,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>159854</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>113504</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>172578</xdr:rowOff>
@@ -13350,13 +13277,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>72479</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -13418,14 +13345,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>102703</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121753</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -13445,7 +13372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5951053" y="5543552"/>
+          <a:off x="6484453" y="5543552"/>
           <a:ext cx="1049821" cy="152397"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -13486,13 +13413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>255103</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -13554,13 +13481,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>131279</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -13622,14 +13549,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -13649,7 +13576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="6505577"/>
+          <a:off x="7762875" y="6505577"/>
           <a:ext cx="838200" cy="142873"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -13690,13 +13617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -13758,13 +13685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>83654</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -13826,14 +13753,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>93178</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>121753</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -13853,7 +13780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8256103" y="7267577"/>
+          <a:off x="8799028" y="7267577"/>
           <a:ext cx="821222" cy="152397"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -13894,13 +13821,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -13921,7 +13848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9303854" y="8029577"/>
+          <a:off x="9818204" y="8029577"/>
           <a:ext cx="535471" cy="152398"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -13962,13 +13889,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>140803</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
@@ -14030,13 +13957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>182429</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>172577</xdr:rowOff>
@@ -14098,13 +14025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>207479</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>235229</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>163052</xdr:rowOff>
@@ -14166,13 +14093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -14234,13 +14161,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>83654</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -14302,13 +14229,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>121754</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>127379</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>172577</xdr:rowOff>
@@ -14370,13 +14297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>130455</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>172578</xdr:rowOff>
@@ -14438,13 +14365,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>159854</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
@@ -14496,13 +14423,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>113504</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -14554,13 +14481,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>131279</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -14612,13 +14539,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
@@ -14680,13 +14607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>16980</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -14750,13 +14677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>110102</xdr:rowOff>
@@ -14808,13 +14735,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>192930</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>110102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109539</xdr:rowOff>
@@ -14866,13 +14793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>2429</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>197954</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -14924,13 +14851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -14948,7 +14875,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="962025"/>
+          <a:off x="5076825" y="962025"/>
           <a:ext cx="0" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -14979,13 +14906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>178904</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -15047,13 +14974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -15115,13 +15042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>159854</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -15183,13 +15110,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>7454</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -15251,13 +15178,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>7454</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -15319,13 +15246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>74128</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -15387,13 +15314,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>7454</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -15445,13 +15372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -15472,8 +15399,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="7343776"/>
-          <a:ext cx="226529" cy="762000"/>
+          <a:off x="9620250" y="7343776"/>
+          <a:ext cx="197954" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15503,14 +15430,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>140803</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
@@ -15529,13 +15456,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9839325" y="8105776"/>
-          <a:ext cx="264628" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm flipH="1">
+          <a:off x="10103953" y="8105776"/>
+          <a:ext cx="249722" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -91542"/>
+            <a:gd name="adj2" fmla="val 50633"/>
+            <a:gd name="adj3" fmla="val 191542"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -15561,13 +15490,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>182429</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>100577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>207479</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>91052</xdr:rowOff>
@@ -15619,13 +15548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>159854</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
@@ -15677,13 +15606,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>7454</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
@@ -15735,13 +15664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>74128</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
@@ -15793,13 +15722,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>102704</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>166454</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -15861,13 +15790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>102704</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>166454</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -15929,13 +15858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>121754</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -15997,13 +15926,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>74129</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -16065,13 +15994,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>89</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>130455</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>172578</xdr:rowOff>
@@ -16133,13 +16062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>120930</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>172578</xdr:rowOff>
@@ -16201,13 +16130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>72479</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>255103</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109539</xdr:rowOff>
@@ -16259,13 +16188,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>74129</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>87</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -16327,13 +16256,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>74129</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
@@ -16387,13 +16316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>88</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
@@ -16455,13 +16384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>83654</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -16513,13 +16442,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -16571,13 +16500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>121754</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -16629,13 +16558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>166454</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>102704</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -16687,13 +16616,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>166454</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>83654</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -16745,13 +16674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>74129</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
@@ -16803,13 +16732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>121754</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>100577</xdr:rowOff>
@@ -16861,13 +16790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>127379</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>100577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
@@ -16919,13 +16848,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>130455</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>87</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
@@ -16977,13 +16906,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>130455</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
@@ -17035,13 +16964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>88</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
@@ -17093,13 +17022,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -17161,13 +17090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -17219,13 +17148,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>83653</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>92</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -17287,13 +17216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>102703</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -17355,13 +17284,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>83653</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
@@ -17413,13 +17342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>98</xdr:col>
+      <xdr:col>92</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>102703</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
@@ -17471,13 +17400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -17539,13 +17468,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>91</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -17607,13 +17536,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>120930</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>100578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>102705</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
@@ -17665,13 +17594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>91</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
@@ -17723,13 +17652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>112230</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>38103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -17791,13 +17720,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>105</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>93180</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -17859,13 +17788,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>121753</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>106</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -17927,13 +17856,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>107</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>131278</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -17995,13 +17924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>109</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>83655</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>118</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -18063,13 +17992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>119</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>112228</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>123</xdr:col>
+      <xdr:col>117</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -18131,13 +18060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
+      <xdr:col>118</xdr:col>
       <xdr:colOff>74128</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>130</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -18199,13 +18128,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>131</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>36028</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>134</xdr:col>
+      <xdr:col>128</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -18275,13 +18204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -18346,13 +18275,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>150332</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -18414,14 +18343,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146580</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127530</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>102703</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121753</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
@@ -18441,8 +18370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5737755" y="4672013"/>
-          <a:ext cx="213298" cy="947738"/>
+          <a:off x="6233055" y="4672013"/>
+          <a:ext cx="251398" cy="947738"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18472,14 +18401,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
@@ -18499,8 +18428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000874" y="5619751"/>
-          <a:ext cx="238126" cy="957263"/>
+          <a:off x="7534274" y="5619751"/>
+          <a:ext cx="228601" cy="957263"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18530,13 +18459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
@@ -18588,13 +18517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>140806</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -18646,13 +18575,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>150332</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -18704,14 +18633,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>93178</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>121753</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -18731,8 +18660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="6577014"/>
-          <a:ext cx="178903" cy="766762"/>
+          <a:off x="8601075" y="6577014"/>
+          <a:ext cx="197953" cy="766762"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -18762,13 +18691,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
@@ -18820,13 +18749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -18847,8 +18776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581524" y="1724024"/>
-          <a:ext cx="2676525" cy="161926"/>
+          <a:off x="4943475" y="1724024"/>
+          <a:ext cx="2314574" cy="161926"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18896,14 +18825,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>131280</xdr:colOff>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112230</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
@@ -18917,18 +18846,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
+          <a:stCxn id="119" idx="1"/>
           <a:endCxn id="10" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4467225" y="1814513"/>
-          <a:ext cx="226530" cy="2857500"/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4943475" y="1804987"/>
+          <a:ext cx="245580" cy="2867026"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -93086"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -18954,13 +18883,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>90489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>112229</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
@@ -19012,13 +18941,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -19070,13 +18999,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -19422,7 +19351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCCC320-CAB2-422E-A04C-20D8935B085F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I106"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19443,15 +19372,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
@@ -19461,11 +19390,11 @@
       <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="40" t="s">
         <v>40</v>
       </c>
@@ -19480,13 +19409,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="67" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -19501,9 +19430,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="43" t="s">
         <v>22</v>
       </c>
@@ -19516,8 +19445,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="42" t="s">
         <v>41</v>
       </c>
@@ -19533,17 +19462,17 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="72" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="69" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="44"/>
@@ -19552,93 +19481,93 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="44"/>
       <c r="H9" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="44"/>
       <c r="H10" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="44"/>
       <c r="H11" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="44"/>
       <c r="H12" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="44"/>
       <c r="H13" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="84"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="44"/>
       <c r="H14" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="69" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="44"/>
@@ -19647,80 +19576,80 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="44"/>
       <c r="H16" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="44"/>
       <c r="H17" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="74"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="72" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="69" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="44"/>
@@ -19729,28 +19658,28 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="74"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="72" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="69" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="44"/>
@@ -19759,34 +19688,34 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="73"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="44"/>
       <c r="H24" s="42" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="44"/>
       <c r="H25" s="42" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="42" t="s">
         <v>76</v>
       </c>
@@ -19802,8 +19731,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="42" t="s">
         <v>79</v>
       </c>
@@ -19819,8 +19748,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="42" t="s">
         <v>82</v>
       </c>
@@ -19836,8 +19765,8 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="42" t="s">
         <v>93</v>
       </c>
@@ -19853,8 +19782,8 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="42" t="s">
         <v>96</v>
       </c>
@@ -19870,8 +19799,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="42" t="s">
         <v>99</v>
       </c>
@@ -19887,8 +19816,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="81" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -19906,15 +19835,15 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="61" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="76" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="69" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="45"/>
@@ -19923,13 +19852,13 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="45"/>
       <c r="H34" s="45" t="s">
         <v>92</v>
@@ -19937,15 +19866,15 @@
       <c r="I34" s="46"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="69" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="78" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="69" t="s">
         <v>103</v>
       </c>
       <c r="G35" s="45"/>
@@ -19955,13 +19884,13 @@
       <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="45"/>
       <c r="H36" s="45" t="s">
         <v>52</v>
@@ -19969,13 +19898,13 @@
       <c r="I36" s="46"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="70"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="66"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="45"/>
       <c r="H37" s="45" t="s">
         <v>53</v>
@@ -19983,67 +19912,67 @@
       <c r="I37" s="46"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="70"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="45"/>
       <c r="H38" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="66"/>
+      <c r="F39" s="71"/>
       <c r="G39" s="45"/>
       <c r="H39" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="71"/>
       <c r="G40" s="45"/>
       <c r="H40" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="71"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="60"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="45"/>
       <c r="H41" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="61" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="76" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="69" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="45"/>
@@ -20052,41 +19981,41 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="66"/>
+      <c r="F43" s="71"/>
       <c r="G43" s="45"/>
       <c r="H43" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="62"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="45"/>
       <c r="H44" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="61" t="s">
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="76" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="69" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="45"/>
@@ -20095,132 +20024,132 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="66"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="45"/>
       <c r="H46" s="42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="66"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="45"/>
       <c r="H47" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="66"/>
+      <c r="F48" s="71"/>
       <c r="G48" s="45"/>
       <c r="H48" s="42" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="66"/>
+      <c r="F49" s="71"/>
       <c r="G49" s="45"/>
       <c r="H49" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="66"/>
+      <c r="F50" s="71"/>
       <c r="G50" s="45"/>
       <c r="H50" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="66"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="45"/>
       <c r="H51" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="66"/>
+      <c r="F52" s="71"/>
       <c r="G52" s="45"/>
       <c r="H52" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="66"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="45"/>
       <c r="H53" s="45" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="80"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="62"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="60"/>
+      <c r="F54" s="70"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="67" t="s">
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="69" t="s">
         <v>114</v>
       </c>
       <c r="G55" s="45"/>
@@ -20229,28 +20158,28 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="68"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="60"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="45"/>
       <c r="H56" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="61" t="s">
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="76" t="s">
         <v>115</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="69" t="s">
         <v>116</v>
       </c>
       <c r="G57" s="45"/>
@@ -20259,67 +20188,67 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="66"/>
+      <c r="F58" s="71"/>
       <c r="G58" s="45"/>
       <c r="H58" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="66"/>
+      <c r="F59" s="71"/>
       <c r="G59" s="45"/>
       <c r="H59" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="66"/>
+      <c r="F60" s="71"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="62"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="60"/>
+      <c r="F61" s="70"/>
       <c r="G61" s="45"/>
       <c r="H61" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="61" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="76" t="s">
         <v>119</v>
       </c>
       <c r="E62" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="69" t="s">
         <v>120</v>
       </c>
       <c r="G62" s="45"/>
@@ -20328,28 +20257,28 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="62"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="60"/>
+      <c r="F63" s="70"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="80"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="61" t="s">
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E64" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="69" t="s">
         <v>124</v>
       </c>
       <c r="G64" s="45"/>
@@ -20358,26 +20287,26 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="62"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="60"/>
+      <c r="F65" s="70"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="61" t="s">
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="76" t="s">
         <v>125</v>
       </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="69" t="s">
         <v>126</v>
       </c>
       <c r="G66" s="45"/>
@@ -20386,47 +20315,47 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="66"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="45"/>
       <c r="H67" s="42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="66"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="45"/>
       <c r="H68" s="42" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="62"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="77"/>
       <c r="E69" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="60"/>
+      <c r="F69" s="70"/>
       <c r="G69" s="45"/>
       <c r="H69" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -20444,8 +20373,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="45" t="s">
         <v>143</v>
       </c>
@@ -20461,8 +20390,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="80"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="45" t="s">
         <v>146</v>
       </c>
@@ -20478,15 +20407,15 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="80"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="61" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="76" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="69" t="s">
         <v>154</v>
       </c>
       <c r="G73" s="45"/>
@@ -20495,28 +20424,28 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="80"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="62"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="77"/>
       <c r="E74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="60"/>
+      <c r="F74" s="70"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="61" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="76" t="s">
         <v>157</v>
       </c>
       <c r="E75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="69" t="s">
         <v>158</v>
       </c>
       <c r="G75" s="45"/>
@@ -20525,34 +20454,34 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="80"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="81"/>
       <c r="E76" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="66"/>
+      <c r="F76" s="71"/>
       <c r="G76" s="45"/>
       <c r="H76" s="45" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="80"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="70"/>
       <c r="G77" s="45"/>
       <c r="H77" s="45" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="51" t="s">
         <v>162</v>
       </c>
@@ -20568,8 +20497,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="80"/>
-      <c r="C79" s="81"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="51" t="s">
         <v>164</v>
       </c>
@@ -20585,15 +20514,15 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="80"/>
-      <c r="C80" s="81"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="51" t="s">
         <v>169</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="69" t="s">
         <v>174</v>
       </c>
       <c r="G80" s="45"/>
@@ -20602,34 +20531,34 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="80"/>
-      <c r="C81" s="81"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="51"/>
       <c r="E81" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="66"/>
+      <c r="F81" s="71"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="51"/>
       <c r="E82" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="60"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="80"/>
-      <c r="C83" s="81"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="51" t="s">
         <v>173</v>
       </c>
@@ -20645,17 +20574,17 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="80"/>
-      <c r="C84" s="63" t="s">
+      <c r="B84" s="65"/>
+      <c r="C84" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="61" t="s">
+      <c r="D84" s="76" t="s">
         <v>134</v>
       </c>
       <c r="E84" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="69" t="s">
         <v>135</v>
       </c>
       <c r="G84" s="45"/>
@@ -20664,28 +20593,28 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="80"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="62"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="60"/>
+      <c r="F85" s="70"/>
       <c r="G85" s="45"/>
       <c r="H85" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="80"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="61" t="s">
+      <c r="B86" s="65"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="76" t="s">
         <v>138</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="69" t="s">
         <v>139</v>
       </c>
       <c r="G86" s="45"/>
@@ -20694,21 +20623,21 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="80"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="62"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="77"/>
       <c r="E87" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="70"/>
       <c r="G87" s="45"/>
       <c r="H87" s="45" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="80"/>
-      <c r="C88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="85"/>
       <c r="D88" s="45" t="s">
         <v>141</v>
       </c>
@@ -20722,8 +20651,8 @@
       <c r="H88" s="45"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="80"/>
-      <c r="C89" s="64"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="85"/>
       <c r="D89" s="45" t="s">
         <v>166</v>
       </c>
@@ -20739,8 +20668,8 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="80"/>
-      <c r="C90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="85"/>
       <c r="D90" s="45" t="s">
         <v>176</v>
       </c>
@@ -20756,7 +20685,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="80"/>
+      <c r="B91" s="65"/>
       <c r="C91" s="50" t="s">
         <v>178</v>
       </c>
@@ -20775,7 +20704,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="80" t="s">
+      <c r="B92" s="65" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="44" t="s">
@@ -20790,7 +20719,7 @@
       <c r="H92" s="45"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93" s="80"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="44" t="s">
         <v>25</v>
       </c>
@@ -20803,7 +20732,7 @@
       <c r="H93" s="45"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="80"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="44" t="s">
         <v>0</v>
       </c>
@@ -20816,7 +20745,7 @@
       <c r="H94" s="45"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="80"/>
+      <c r="B95" s="65"/>
       <c r="C95" s="44" t="s">
         <v>1</v>
       </c>
@@ -20829,7 +20758,7 @@
       <c r="H95" s="45"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="80"/>
+      <c r="B96" s="65"/>
       <c r="C96" s="44" t="s">
         <v>2</v>
       </c>
@@ -20842,7 +20771,7 @@
       <c r="H96" s="45"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="65" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="41" t="s">
@@ -20857,7 +20786,7 @@
       <c r="H97" s="45"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="80"/>
+      <c r="B98" s="65"/>
       <c r="C98" s="41" t="s">
         <v>28</v>
       </c>
@@ -20870,7 +20799,7 @@
       <c r="H98" s="45"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="80"/>
+      <c r="B99" s="65"/>
       <c r="C99" s="44" t="s">
         <v>29</v>
       </c>
@@ -20883,7 +20812,7 @@
       <c r="H99" s="45"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" s="80" t="s">
+      <c r="B100" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="41" t="s">
@@ -20900,7 +20829,7 @@
       <c r="H100" s="45"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="80"/>
+      <c r="B101" s="65"/>
       <c r="C101" s="41" t="s">
         <v>33</v>
       </c>
@@ -20915,7 +20844,7 @@
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="80"/>
+      <c r="B102" s="65"/>
       <c r="C102" s="44" t="s">
         <v>35</v>
       </c>
@@ -20941,7 +20870,7 @@
       <c r="H103" s="45"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" s="75" t="s">
+      <c r="B104" s="60" t="s">
         <v>180</v>
       </c>
       <c r="C104" s="45" t="s">
@@ -20954,7 +20883,7 @@
       <c r="H104" s="45"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="76"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="45" t="s">
         <v>182</v>
       </c>
@@ -20965,7 +20894,7 @@
       <c r="H105" s="45"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B106" s="77"/>
+      <c r="B106" s="62"/>
       <c r="C106" s="45" t="s">
         <v>237</v>
       </c>
@@ -20977,6 +20906,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="B104:B106"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:D4"/>
@@ -20993,38 +20954,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F80:F82"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21033,7 +20962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BBC04-FA6C-43F0-8DE9-5D1F66D1ED5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -22245,7 +22174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D6780-1C5A-46BC-80E4-C2A9D14A5169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -23606,30 +23535,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C239C8-B243-427B-A240-0DC5D3B038FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:GM87"/>
+  <dimension ref="A2:GG87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD22" sqref="AD22"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="2.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.875" style="2" customWidth="1"/>
-    <col min="7" max="60" width="3.375" style="3" customWidth="1"/>
-    <col min="61" max="67" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="68" max="215" width="3.125" style="3" customWidth="1"/>
-    <col min="216" max="16384" width="9" style="3"/>
+    <col min="7" max="54" width="3.375" style="3" customWidth="1"/>
+    <col min="55" max="61" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="209" width="3.125" style="3" customWidth="1"/>
+    <col min="210" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -23639,7 +23568,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -23649,7 +23578,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -23659,13 +23588,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:189" x14ac:dyDescent="0.3">
       <c r="F5" s="58"/>
     </row>
-    <row r="6" spans="1:195" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:189" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F6" s="5"/>
-      <c r="G6" s="25" t="s">
-        <v>224</v>
+      <c r="G6" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -23682,15 +23611,15 @@
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="28" t="s">
+      <c r="W6" s="28" t="s">
         <v>225</v>
       </c>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
       <c r="AF6" s="29"/>
@@ -23704,63 +23633,63 @@
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
       <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="19" t="s">
+      <c r="AQ6" s="19" t="s">
         <v>5</v>
       </c>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
       <c r="AX6" s="18"/>
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
       <c r="BA6" s="18"/>
       <c r="BB6" s="18"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
+      <c r="BC6" s="31"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
       <c r="BI6" s="31"/>
       <c r="BJ6" s="31"/>
       <c r="BK6" s="31"/>
       <c r="BL6" s="31"/>
       <c r="BM6" s="31"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="31"/>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="31"/>
-      <c r="BT6" s="22" t="s">
+      <c r="BN6" s="22" t="s">
         <v>228</v>
       </c>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
+      <c r="BT6" s="23"/>
       <c r="BU6" s="23"/>
       <c r="BV6" s="23"/>
       <c r="BW6" s="23"/>
       <c r="BX6" s="23"/>
       <c r="BY6" s="23"/>
-      <c r="BZ6" s="23"/>
-      <c r="CA6" s="23"/>
-      <c r="CB6" s="23"/>
-      <c r="CC6" s="23"/>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="23"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
       <c r="CF6" s="53"/>
       <c r="CG6" s="53"/>
       <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="54" t="s">
+      <c r="CI6" s="54" t="s">
         <v>229</v>
       </c>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="54"/>
+      <c r="CO6" s="54"/>
       <c r="CP6" s="54"/>
       <c r="CQ6" s="54"/>
       <c r="CR6" s="54"/>
@@ -23773,15 +23702,15 @@
       <c r="CY6" s="54"/>
       <c r="CZ6" s="54"/>
       <c r="DA6" s="54"/>
-      <c r="DB6" s="54"/>
-      <c r="DC6" s="54"/>
-      <c r="DD6" s="54"/>
-      <c r="DE6" s="54"/>
-      <c r="DF6" s="54"/>
-      <c r="DG6" s="54"/>
-      <c r="DH6" s="56" t="s">
+      <c r="DB6" s="56" t="s">
         <v>243</v>
       </c>
+      <c r="DC6" s="56"/>
+      <c r="DD6" s="56"/>
+      <c r="DE6" s="56"/>
+      <c r="DF6" s="56"/>
+      <c r="DG6" s="56"/>
+      <c r="DH6" s="56"/>
       <c r="DI6" s="56"/>
       <c r="DJ6" s="56"/>
       <c r="DK6" s="56"/>
@@ -23796,593 +23725,569 @@
       <c r="DT6" s="56"/>
       <c r="DU6" s="56"/>
       <c r="DV6" s="56"/>
-      <c r="DW6" s="56"/>
-      <c r="DX6" s="56"/>
-      <c r="DY6" s="56"/>
-      <c r="DZ6" s="56"/>
-      <c r="EA6" s="56"/>
-      <c r="EB6" s="56"/>
-      <c r="EC6" s="4" t="s">
+      <c r="DW6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="EX6" s="4" t="s">
+      <c r="ER6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="FS6" s="4" t="s">
+      <c r="FM6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="GM6" s="4" t="s">
+      <c r="GG6" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:195" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:189" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F7" s="7"/>
       <c r="G7" s="27">
+        <v>10</v>
+      </c>
+      <c r="H7" s="27">
+        <v>13</v>
+      </c>
+      <c r="I7" s="27">
+        <v>14</v>
+      </c>
+      <c r="J7" s="27">
+        <v>15</v>
+      </c>
+      <c r="K7" s="27">
+        <v>16</v>
+      </c>
+      <c r="L7" s="27">
+        <v>17</v>
+      </c>
+      <c r="M7" s="27">
+        <v>20</v>
+      </c>
+      <c r="N7" s="27">
+        <v>21</v>
+      </c>
+      <c r="O7" s="27">
+        <v>22</v>
+      </c>
+      <c r="P7" s="27">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>24</v>
+      </c>
+      <c r="R7" s="27">
+        <v>27</v>
+      </c>
+      <c r="S7" s="27">
+        <v>28</v>
+      </c>
+      <c r="T7" s="27">
+        <v>29</v>
+      </c>
+      <c r="U7" s="27">
+        <v>30</v>
+      </c>
+      <c r="V7" s="27">
+        <v>31</v>
+      </c>
+      <c r="W7" s="30">
+        <v>3</v>
+      </c>
+      <c r="X7" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="30">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="30">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="30">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="30">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="30">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="30">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>19</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>20</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>21</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>24</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>25</v>
+      </c>
+      <c r="AN7" s="30">
+        <v>26</v>
+      </c>
+      <c r="AO7" s="30">
+        <v>27</v>
+      </c>
+      <c r="AP7" s="30">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="20">
         <v>1</v>
       </c>
-      <c r="H7" s="27">
+      <c r="AR7" s="20">
         <v>2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="AS7" s="20">
         <v>3</v>
       </c>
-      <c r="J7" s="27">
+      <c r="AT7" s="20">
+        <v>4</v>
+      </c>
+      <c r="AU7" s="20">
+        <v>5</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>8</v>
+      </c>
+      <c r="AW7" s="20">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>10</v>
+      </c>
+      <c r="AY7" s="20">
+        <v>11</v>
+      </c>
+      <c r="AZ7" s="20">
+        <v>12</v>
+      </c>
+      <c r="BA7" s="20">
+        <v>15</v>
+      </c>
+      <c r="BB7" s="20">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="20">
+        <v>17</v>
+      </c>
+      <c r="BD7" s="20">
+        <v>18</v>
+      </c>
+      <c r="BE7" s="20">
+        <v>19</v>
+      </c>
+      <c r="BF7" s="20">
+        <v>22</v>
+      </c>
+      <c r="BG7" s="20">
+        <v>23</v>
+      </c>
+      <c r="BH7" s="20">
+        <v>24</v>
+      </c>
+      <c r="BI7" s="21">
+        <v>25</v>
+      </c>
+      <c r="BJ7" s="20">
+        <v>26</v>
+      </c>
+      <c r="BK7" s="20">
+        <v>29</v>
+      </c>
+      <c r="BL7" s="20">
+        <v>30</v>
+      </c>
+      <c r="BM7" s="20">
+        <v>31</v>
+      </c>
+      <c r="BN7" s="24">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="24">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="24">
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="24">
+        <v>6</v>
+      </c>
+      <c r="BR7" s="24">
         <v>7</v>
       </c>
-      <c r="K7" s="27">
+      <c r="BS7" s="24">
         <v>8</v>
       </c>
-      <c r="L7" s="27">
+      <c r="BT7" s="24">
         <v>9</v>
       </c>
-      <c r="M7" s="27">
+      <c r="BU7" s="24">
+        <v>12</v>
+      </c>
+      <c r="BV7" s="24">
+        <v>13</v>
+      </c>
+      <c r="BW7" s="24">
+        <v>14</v>
+      </c>
+      <c r="BX7" s="24">
+        <v>16</v>
+      </c>
+      <c r="BY7" s="24">
+        <v>19</v>
+      </c>
+      <c r="BZ7" s="24">
+        <v>20</v>
+      </c>
+      <c r="CA7" s="24">
+        <v>21</v>
+      </c>
+      <c r="CB7" s="24">
+        <v>22</v>
+      </c>
+      <c r="CC7" s="24">
+        <v>23</v>
+      </c>
+      <c r="CD7" s="24">
+        <v>26</v>
+      </c>
+      <c r="CE7" s="24">
+        <v>27</v>
+      </c>
+      <c r="CF7" s="24">
+        <v>28</v>
+      </c>
+      <c r="CG7" s="24">
+        <v>29</v>
+      </c>
+      <c r="CH7" s="24">
+        <v>30</v>
+      </c>
+      <c r="CI7" s="27">
+        <v>2</v>
+      </c>
+      <c r="CJ7" s="27">
+        <v>3</v>
+      </c>
+      <c r="CK7" s="27">
+        <v>4</v>
+      </c>
+      <c r="CL7" s="27">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="27">
+        <v>6</v>
+      </c>
+      <c r="CN7" s="27">
+        <v>9</v>
+      </c>
+      <c r="CO7" s="27">
         <v>10</v>
       </c>
-      <c r="N7" s="27">
+      <c r="CP7" s="27">
+        <v>11</v>
+      </c>
+      <c r="CQ7" s="27">
+        <v>16</v>
+      </c>
+      <c r="CR7" s="27">
+        <v>17</v>
+      </c>
+      <c r="CS7" s="27">
+        <v>18</v>
+      </c>
+      <c r="CT7" s="27">
+        <v>19</v>
+      </c>
+      <c r="CU7" s="27">
+        <v>20</v>
+      </c>
+      <c r="CV7" s="27">
+        <v>23</v>
+      </c>
+      <c r="CW7" s="27">
+        <v>24</v>
+      </c>
+      <c r="CX7" s="27">
+        <v>25</v>
+      </c>
+      <c r="CY7" s="27">
+        <v>26</v>
+      </c>
+      <c r="CZ7" s="27">
+        <v>27</v>
+      </c>
+      <c r="DA7" s="27">
+        <v>30</v>
+      </c>
+      <c r="DB7" s="57">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="57">
+        <v>2</v>
+      </c>
+      <c r="DD7" s="57">
+        <v>4</v>
+      </c>
+      <c r="DE7" s="57">
+        <v>7</v>
+      </c>
+      <c r="DF7" s="57">
+        <v>8</v>
+      </c>
+      <c r="DG7" s="57">
+        <v>10</v>
+      </c>
+      <c r="DH7" s="57">
+        <v>11</v>
+      </c>
+      <c r="DI7" s="57">
+        <v>14</v>
+      </c>
+      <c r="DJ7" s="57">
+        <v>15</v>
+      </c>
+      <c r="DK7" s="57">
+        <v>16</v>
+      </c>
+      <c r="DL7" s="57">
+        <v>17</v>
+      </c>
+      <c r="DM7" s="57">
+        <v>18</v>
+      </c>
+      <c r="DN7" s="57">
+        <v>21</v>
+      </c>
+      <c r="DO7" s="57">
+        <v>22</v>
+      </c>
+      <c r="DP7" s="57">
+        <v>23</v>
+      </c>
+      <c r="DQ7" s="57">
+        <v>24</v>
+      </c>
+      <c r="DR7" s="57">
+        <v>25</v>
+      </c>
+      <c r="DS7" s="57">
+        <v>28</v>
+      </c>
+      <c r="DT7" s="57">
+        <v>29</v>
+      </c>
+      <c r="DU7" s="57">
+        <v>30</v>
+      </c>
+      <c r="DV7" s="57">
+        <v>31</v>
+      </c>
+      <c r="DW7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="6">
+        <v>4</v>
+      </c>
+      <c r="DY7" s="6">
+        <v>5</v>
+      </c>
+      <c r="DZ7" s="6">
+        <v>6</v>
+      </c>
+      <c r="EA7" s="6">
+        <v>7</v>
+      </c>
+      <c r="EB7" s="6">
+        <v>8</v>
+      </c>
+      <c r="EC7" s="6">
+        <v>11</v>
+      </c>
+      <c r="ED7" s="6">
+        <v>12</v>
+      </c>
+      <c r="EE7" s="6">
         <v>13</v>
       </c>
-      <c r="O7" s="27">
+      <c r="EF7" s="6">
         <v>14</v>
       </c>
-      <c r="P7" s="27">
+      <c r="EG7" s="6">
         <v>15</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="EH7" s="6">
+        <v>18</v>
+      </c>
+      <c r="EI7" s="6">
+        <v>19</v>
+      </c>
+      <c r="EJ7" s="6">
+        <v>20</v>
+      </c>
+      <c r="EK7" s="6">
+        <v>21</v>
+      </c>
+      <c r="EL7" s="6">
+        <v>22</v>
+      </c>
+      <c r="EM7" s="6">
+        <v>25</v>
+      </c>
+      <c r="EN7" s="6">
+        <v>26</v>
+      </c>
+      <c r="EO7" s="6">
+        <v>27</v>
+      </c>
+      <c r="EP7" s="6">
+        <v>28</v>
+      </c>
+      <c r="EQ7" s="6">
+        <v>29</v>
+      </c>
+      <c r="ER7" s="6">
+        <v>2</v>
+      </c>
+      <c r="ES7" s="6">
+        <v>3</v>
+      </c>
+      <c r="ET7" s="6">
+        <v>4</v>
+      </c>
+      <c r="EU7" s="6">
+        <v>5</v>
+      </c>
+      <c r="EV7" s="6">
+        <v>6</v>
+      </c>
+      <c r="EW7" s="6">
+        <v>9</v>
+      </c>
+      <c r="EX7" s="6">
+        <v>10</v>
+      </c>
+      <c r="EY7" s="6">
+        <v>11</v>
+      </c>
+      <c r="EZ7" s="6">
+        <v>12</v>
+      </c>
+      <c r="FA7" s="6">
+        <v>13</v>
+      </c>
+      <c r="FB7" s="6">
         <v>16</v>
       </c>
-      <c r="R7" s="27">
+      <c r="FC7" s="6">
         <v>17</v>
       </c>
-      <c r="S7" s="27">
+      <c r="FD7" s="6">
+        <v>18</v>
+      </c>
+      <c r="FE7" s="6">
+        <v>19</v>
+      </c>
+      <c r="FF7" s="6">
         <v>20</v>
       </c>
-      <c r="T7" s="27">
+      <c r="FG7" s="6">
+        <v>23</v>
+      </c>
+      <c r="FH7" s="6">
+        <v>24</v>
+      </c>
+      <c r="FI7" s="6">
+        <v>26</v>
+      </c>
+      <c r="FJ7" s="6">
+        <v>27</v>
+      </c>
+      <c r="FK7" s="6">
+        <v>30</v>
+      </c>
+      <c r="FL7" s="6">
+        <v>31</v>
+      </c>
+      <c r="FM7" s="6">
+        <v>2</v>
+      </c>
+      <c r="FN7" s="6">
+        <v>3</v>
+      </c>
+      <c r="FO7" s="6">
+        <v>6</v>
+      </c>
+      <c r="FP7" s="6">
+        <v>7</v>
+      </c>
+      <c r="FQ7" s="6">
+        <v>8</v>
+      </c>
+      <c r="FR7" s="6">
+        <v>9</v>
+      </c>
+      <c r="FS7" s="6">
+        <v>10</v>
+      </c>
+      <c r="FT7" s="6">
+        <v>13</v>
+      </c>
+      <c r="FU7" s="6">
+        <v>14</v>
+      </c>
+      <c r="FV7" s="6">
+        <v>15</v>
+      </c>
+      <c r="FW7" s="6">
+        <v>16</v>
+      </c>
+      <c r="FX7" s="6">
+        <v>17</v>
+      </c>
+      <c r="FY7" s="6">
+        <v>20</v>
+      </c>
+      <c r="FZ7" s="6">
         <v>21</v>
       </c>
-      <c r="U7" s="27">
+      <c r="GA7" s="6">
         <v>22</v>
       </c>
-      <c r="V7" s="27">
+      <c r="GB7" s="6">
         <v>23</v>
       </c>
-      <c r="W7" s="27">
-        <v>24</v>
-      </c>
-      <c r="X7" s="27">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="27">
+      <c r="GC7" s="6">
         <v>28</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="GD7" s="6">
         <v>29</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="GE7" s="6">
         <v>30</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="GF7" s="6">
         <v>31</v>
       </c>
-      <c r="AC7" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="30">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="30">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="30">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="30">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="30">
-        <v>10</v>
-      </c>
-      <c r="AI7" s="30">
-        <v>11</v>
-      </c>
-      <c r="AJ7" s="30">
-        <v>12</v>
-      </c>
-      <c r="AK7" s="30">
-        <v>13</v>
-      </c>
-      <c r="AL7" s="30">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="30">
-        <v>17</v>
-      </c>
-      <c r="AN7" s="30">
-        <v>18</v>
-      </c>
-      <c r="AO7" s="30">
-        <v>19</v>
-      </c>
-      <c r="AP7" s="30">
-        <v>20</v>
-      </c>
-      <c r="AQ7" s="30">
-        <v>21</v>
-      </c>
-      <c r="AR7" s="30">
-        <v>24</v>
-      </c>
-      <c r="AS7" s="30">
-        <v>25</v>
-      </c>
-      <c r="AT7" s="30">
-        <v>26</v>
-      </c>
-      <c r="AU7" s="30">
-        <v>27</v>
-      </c>
-      <c r="AV7" s="30">
-        <v>28</v>
-      </c>
-      <c r="AW7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="20">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="20">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="20">
-        <v>4</v>
-      </c>
-      <c r="BA7" s="20">
-        <v>5</v>
-      </c>
-      <c r="BB7" s="20">
-        <v>8</v>
-      </c>
-      <c r="BC7" s="20">
-        <v>9</v>
-      </c>
-      <c r="BD7" s="20">
-        <v>10</v>
-      </c>
-      <c r="BE7" s="20">
-        <v>11</v>
-      </c>
-      <c r="BF7" s="20">
-        <v>12</v>
-      </c>
-      <c r="BG7" s="20">
-        <v>15</v>
-      </c>
-      <c r="BH7" s="20">
-        <v>16</v>
-      </c>
-      <c r="BI7" s="20">
-        <v>17</v>
-      </c>
-      <c r="BJ7" s="20">
-        <v>18</v>
-      </c>
-      <c r="BK7" s="20">
-        <v>19</v>
-      </c>
-      <c r="BL7" s="20">
-        <v>22</v>
-      </c>
-      <c r="BM7" s="20">
-        <v>23</v>
-      </c>
-      <c r="BN7" s="20">
-        <v>24</v>
-      </c>
-      <c r="BO7" s="21">
-        <v>25</v>
-      </c>
-      <c r="BP7" s="20">
-        <v>26</v>
-      </c>
-      <c r="BQ7" s="20">
-        <v>29</v>
-      </c>
-      <c r="BR7" s="20">
-        <v>30</v>
-      </c>
-      <c r="BS7" s="20">
-        <v>31</v>
-      </c>
-      <c r="BT7" s="24">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="24">
-        <v>2</v>
-      </c>
-      <c r="BV7" s="24">
-        <v>5</v>
-      </c>
-      <c r="BW7" s="24">
-        <v>6</v>
-      </c>
-      <c r="BX7" s="24">
-        <v>7</v>
-      </c>
-      <c r="BY7" s="24">
-        <v>8</v>
-      </c>
-      <c r="BZ7" s="24">
-        <v>9</v>
-      </c>
-      <c r="CA7" s="24">
-        <v>12</v>
-      </c>
-      <c r="CB7" s="24">
-        <v>13</v>
-      </c>
-      <c r="CC7" s="24">
-        <v>14</v>
-      </c>
-      <c r="CD7" s="24">
-        <v>16</v>
-      </c>
-      <c r="CE7" s="24">
-        <v>19</v>
-      </c>
-      <c r="CF7" s="24">
-        <v>20</v>
-      </c>
-      <c r="CG7" s="24">
-        <v>21</v>
-      </c>
-      <c r="CH7" s="24">
-        <v>22</v>
-      </c>
-      <c r="CI7" s="24">
-        <v>23</v>
-      </c>
-      <c r="CJ7" s="24">
-        <v>26</v>
-      </c>
-      <c r="CK7" s="24">
-        <v>27</v>
-      </c>
-      <c r="CL7" s="24">
-        <v>28</v>
-      </c>
-      <c r="CM7" s="24">
-        <v>29</v>
-      </c>
-      <c r="CN7" s="24">
-        <v>30</v>
-      </c>
-      <c r="CO7" s="27">
-        <v>2</v>
-      </c>
-      <c r="CP7" s="27">
-        <v>3</v>
-      </c>
-      <c r="CQ7" s="27">
-        <v>4</v>
-      </c>
-      <c r="CR7" s="27">
-        <v>5</v>
-      </c>
-      <c r="CS7" s="27">
-        <v>6</v>
-      </c>
-      <c r="CT7" s="27">
-        <v>9</v>
-      </c>
-      <c r="CU7" s="27">
-        <v>10</v>
-      </c>
-      <c r="CV7" s="27">
-        <v>11</v>
-      </c>
-      <c r="CW7" s="27">
-        <v>16</v>
-      </c>
-      <c r="CX7" s="27">
-        <v>17</v>
-      </c>
-      <c r="CY7" s="27">
-        <v>18</v>
-      </c>
-      <c r="CZ7" s="27">
-        <v>19</v>
-      </c>
-      <c r="DA7" s="27">
-        <v>20</v>
-      </c>
-      <c r="DB7" s="27">
-        <v>23</v>
-      </c>
-      <c r="DC7" s="27">
-        <v>24</v>
-      </c>
-      <c r="DD7" s="27">
-        <v>25</v>
-      </c>
-      <c r="DE7" s="27">
-        <v>26</v>
-      </c>
-      <c r="DF7" s="27">
-        <v>27</v>
-      </c>
-      <c r="DG7" s="27">
-        <v>30</v>
-      </c>
-      <c r="DH7" s="57">
-        <v>1</v>
-      </c>
-      <c r="DI7" s="57">
-        <v>2</v>
-      </c>
-      <c r="DJ7" s="57">
-        <v>4</v>
-      </c>
-      <c r="DK7" s="57">
-        <v>7</v>
-      </c>
-      <c r="DL7" s="57">
-        <v>8</v>
-      </c>
-      <c r="DM7" s="57">
-        <v>10</v>
-      </c>
-      <c r="DN7" s="57">
-        <v>11</v>
-      </c>
-      <c r="DO7" s="57">
-        <v>14</v>
-      </c>
-      <c r="DP7" s="57">
-        <v>15</v>
-      </c>
-      <c r="DQ7" s="57">
-        <v>16</v>
-      </c>
-      <c r="DR7" s="57">
-        <v>17</v>
-      </c>
-      <c r="DS7" s="57">
-        <v>18</v>
-      </c>
-      <c r="DT7" s="57">
-        <v>21</v>
-      </c>
-      <c r="DU7" s="57">
-        <v>22</v>
-      </c>
-      <c r="DV7" s="57">
-        <v>23</v>
-      </c>
-      <c r="DW7" s="57">
-        <v>24</v>
-      </c>
-      <c r="DX7" s="57">
-        <v>25</v>
-      </c>
-      <c r="DY7" s="57">
-        <v>28</v>
-      </c>
-      <c r="DZ7" s="57">
-        <v>29</v>
-      </c>
-      <c r="EA7" s="57">
-        <v>30</v>
-      </c>
-      <c r="EB7" s="57">
-        <v>31</v>
-      </c>
-      <c r="EC7" s="6">
-        <v>1</v>
-      </c>
-      <c r="ED7" s="6">
-        <v>4</v>
-      </c>
-      <c r="EE7" s="6">
-        <v>5</v>
-      </c>
-      <c r="EF7" s="6">
-        <v>6</v>
-      </c>
-      <c r="EG7" s="6">
-        <v>7</v>
-      </c>
-      <c r="EH7" s="6">
-        <v>8</v>
-      </c>
-      <c r="EI7" s="6">
-        <v>11</v>
-      </c>
-      <c r="EJ7" s="6">
-        <v>12</v>
-      </c>
-      <c r="EK7" s="6">
-        <v>13</v>
-      </c>
-      <c r="EL7" s="6">
-        <v>14</v>
-      </c>
-      <c r="EM7" s="6">
-        <v>15</v>
-      </c>
-      <c r="EN7" s="6">
-        <v>18</v>
-      </c>
-      <c r="EO7" s="6">
-        <v>19</v>
-      </c>
-      <c r="EP7" s="6">
-        <v>20</v>
-      </c>
-      <c r="EQ7" s="6">
-        <v>21</v>
-      </c>
-      <c r="ER7" s="6">
-        <v>22</v>
-      </c>
-      <c r="ES7" s="6">
-        <v>25</v>
-      </c>
-      <c r="ET7" s="6">
-        <v>26</v>
-      </c>
-      <c r="EU7" s="6">
-        <v>27</v>
-      </c>
-      <c r="EV7" s="6">
-        <v>28</v>
-      </c>
-      <c r="EW7" s="6">
-        <v>29</v>
-      </c>
-      <c r="EX7" s="6">
-        <v>2</v>
-      </c>
-      <c r="EY7" s="6">
-        <v>3</v>
-      </c>
-      <c r="EZ7" s="6">
-        <v>4</v>
-      </c>
-      <c r="FA7" s="6">
-        <v>5</v>
-      </c>
-      <c r="FB7" s="6">
-        <v>6</v>
-      </c>
-      <c r="FC7" s="6">
-        <v>9</v>
-      </c>
-      <c r="FD7" s="6">
-        <v>10</v>
-      </c>
-      <c r="FE7" s="6">
-        <v>11</v>
-      </c>
-      <c r="FF7" s="6">
-        <v>12</v>
-      </c>
-      <c r="FG7" s="6">
-        <v>13</v>
-      </c>
-      <c r="FH7" s="6">
-        <v>16</v>
-      </c>
-      <c r="FI7" s="6">
-        <v>17</v>
-      </c>
-      <c r="FJ7" s="6">
-        <v>18</v>
-      </c>
-      <c r="FK7" s="6">
-        <v>19</v>
-      </c>
-      <c r="FL7" s="6">
-        <v>20</v>
-      </c>
-      <c r="FM7" s="6">
-        <v>23</v>
-      </c>
-      <c r="FN7" s="6">
-        <v>24</v>
-      </c>
-      <c r="FO7" s="6">
-        <v>26</v>
-      </c>
-      <c r="FP7" s="6">
-        <v>27</v>
-      </c>
-      <c r="FQ7" s="6">
-        <v>30</v>
-      </c>
-      <c r="FR7" s="6">
-        <v>31</v>
-      </c>
-      <c r="FS7" s="6">
-        <v>2</v>
-      </c>
-      <c r="FT7" s="6">
-        <v>3</v>
-      </c>
-      <c r="FU7" s="6">
-        <v>6</v>
-      </c>
-      <c r="FV7" s="6">
-        <v>7</v>
-      </c>
-      <c r="FW7" s="6">
-        <v>8</v>
-      </c>
-      <c r="FX7" s="6">
-        <v>9</v>
-      </c>
-      <c r="FY7" s="6">
-        <v>10</v>
-      </c>
-      <c r="FZ7" s="6">
-        <v>13</v>
-      </c>
-      <c r="GA7" s="6">
-        <v>14</v>
-      </c>
-      <c r="GB7" s="6">
-        <v>15</v>
-      </c>
-      <c r="GC7" s="6">
-        <v>16</v>
-      </c>
-      <c r="GD7" s="6">
-        <v>17</v>
-      </c>
-      <c r="GE7" s="6">
-        <v>20</v>
-      </c>
-      <c r="GF7" s="6">
-        <v>21</v>
-      </c>
-      <c r="GG7" s="6">
-        <v>22</v>
-      </c>
-      <c r="GH7" s="6">
-        <v>23</v>
-      </c>
-      <c r="GI7" s="6">
-        <v>28</v>
-      </c>
-      <c r="GJ7" s="6">
-        <v>29</v>
-      </c>
-      <c r="GK7" s="6">
-        <v>30</v>
-      </c>
-      <c r="GL7" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:195" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -24392,7 +24297,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="11" t="s">
         <v>186</v>
@@ -24402,7 +24307,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="3">
         <v>1</v>
@@ -24414,7 +24319,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>2</v>
@@ -24426,7 +24331,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="3">
         <v>3</v>
@@ -24438,7 +24343,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3">
         <v>4</v>
@@ -24447,22 +24352,22 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="58"/>
     </row>
-    <row r="15" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:195" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:189" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>6</v>
